--- a/model_1/testing_model1_size_5000_portion_0.8.xlsx
+++ b/model_1/testing_model1_size_5000_portion_0.8.xlsx
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Use a smart speaker to stop the phone</t>
+          <t>turn off the computer</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -458,7 +458,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Use a smart speaker to stop the microphone</t>
+          <t>Use a smart speaker to pause the microphone</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -468,7 +468,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Customize a button to exit the earphone</t>
+          <t>close the mp3</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -478,7 +478,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Configure settings to automatically close the microphone</t>
+          <t>stop the microphone</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -488,7 +488,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Use a smart speaker to exit the computer</t>
+          <t>Use a smart speaker to turn off the walkman</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -498,7 +498,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>turn off the music</t>
+          <t>Configure settings to automatically pause the phone</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Set a timer to stop the walkman</t>
+          <t>Use a smart speaker to close the phone</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -518,7 +518,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Customize a button to turn off the phone</t>
+          <t>Use a smart speaker to close the guitar</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -528,7 +528,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>turn off the phone</t>
+          <t>close the guitar</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -538,7 +538,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>pause the mp3</t>
+          <t>stop the music</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -548,7 +548,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Customize a button to exit the computer</t>
+          <t>Use a smart speaker to pause the walkman</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -558,7 +558,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Use a smart speaker to stop the guitar</t>
+          <t>Configure settings to automatically pause the earphone</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -568,7 +568,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Customize a button to turn off the mp3</t>
+          <t>Use a smart speaker to exit the microphone</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -578,7 +578,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>close the walkman</t>
+          <t>Use a smart speaker to close the microphone</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -588,7 +588,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Configure settings to automatically pause the microphone</t>
+          <t>hit the close button</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -598,7 +598,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Configure settings to automatically stop the microphone</t>
+          <t>Use a smart speaker to pause the music</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -608,7 +608,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Customize a button to exit the phone</t>
+          <t>Use a smart speaker to exit the music</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -618,7 +618,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Configure settings to automatically turn off the walkman</t>
+          <t>pause the phone</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -628,7 +628,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Configure settings to automatically exit the walkman</t>
+          <t>Use a smart speaker to turn off the walkman</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -638,7 +638,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>exit the computer</t>
+          <t>Use a smart speaker to turn off the guitar</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -648,7 +648,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Configure settings to automatically turn off the phone</t>
+          <t>Configure settings to automatically pause the guitar</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -658,7 +658,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Use a smart speaker to close the earphone</t>
+          <t>Configure settings to automatically stop the mp3</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -668,7 +668,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Use a smart speaker to pause the walkman</t>
+          <t>close the guitar</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -678,7 +678,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Customize a button to close the walkman</t>
+          <t>Use a smart speaker to turn off the walkman</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -688,7 +688,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Set a timer to close the phone</t>
+          <t>Use a smart speaker to stop the computer</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -698,7 +698,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Set a timer to stop the computer</t>
+          <t>Use a smart speaker to exit the phone</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -708,7 +708,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Use a smart speaker to close the earphone</t>
+          <t>Use a smart speaker to turn off the mp3</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -718,7 +718,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Set a timer to turn off the walkman</t>
+          <t>hit the close button</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -728,7 +728,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Set a timer to pause the microphone</t>
+          <t>exit the computer</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -738,7 +738,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Set a timer to exit the phone</t>
+          <t>close the microphone</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -748,7 +748,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Set a timer to stop the computer</t>
+          <t>Configure settings to automatically pause the music</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -758,7 +758,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Use a smart speaker to stop the guitar</t>
+          <t>close the computer</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -768,7 +768,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Set a timer to close the music</t>
+          <t>Use a smart speaker to exit the music</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -778,7 +778,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Customize a button to exit the guitar</t>
+          <t>turn off the guitar</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -788,7 +788,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Configure settings to automatically exit the mp3</t>
+          <t>exit the mp3</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -798,7 +798,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Set a timer to pause the computer</t>
+          <t>Configure settings to automatically pause the music</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -808,7 +808,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Set a timer to stop the earphone</t>
+          <t>exit the music</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -818,7 +818,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Configure settings to automatically stop the guitar</t>
+          <t>stop the phone</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -828,7 +828,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Configure settings to automatically exit the computer</t>
+          <t>pause the earphone</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -838,7 +838,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>exit the guitar</t>
+          <t>Use a smart speaker to pause the guitar</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -848,7 +848,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Configure settings to automatically close the mp3</t>
+          <t>Use a smart speaker to turn off the music</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -858,7 +858,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>pause the music</t>
+          <t>Use a smart speaker to exit the guitar</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -868,7 +868,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Use a smart speaker to exit the guitar</t>
+          <t>pause the mp3</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -878,7 +878,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Configure settings to automatically stop the music</t>
+          <t>Use a smart speaker to stop the computer</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -888,7 +888,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Customize a button to exit the computer</t>
+          <t>hit the exit button</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -898,7 +898,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Configure settings to automatically stop the walkman</t>
+          <t>Use a smart speaker to close the computer</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -908,7 +908,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Set a timer to stop the computer</t>
+          <t>pause the microphone</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -918,7 +918,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Set a timer to pause the computer</t>
+          <t>Use a smart speaker to pause the computer</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -928,7 +928,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Configure settings to automatically exit the mp3</t>
+          <t>pause the microphone</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -938,7 +938,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Set a timer to close the walkman</t>
+          <t>exit the earphone</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -948,7 +948,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Set a timer to exit the phone</t>
+          <t>Use a smart speaker to turn off the microphone</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -958,7 +958,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>stop the guitar</t>
+          <t>turn off the earphone</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -968,7 +968,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Set a timer to pause the microphone</t>
+          <t>turn off the music</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -978,7 +978,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Use a smart speaker to turn off the computer</t>
+          <t>Configure settings to automatically pause the walkman</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -988,7 +988,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Use a smart speaker to pause the music</t>
+          <t>Use a smart speaker to turn off the earphone</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -998,7 +998,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>pause the earphone</t>
+          <t>close the microphone</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -1008,7 +1008,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Use a smart speaker to pause the computer</t>
+          <t>Configure settings to automatically pause the phone</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1018,7 +1018,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>stop the walkman</t>
+          <t>Use a smart speaker to turn off the walkman</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -1028,7 +1028,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>turn off the earphone</t>
+          <t>Configure settings to automatically stop the microphone</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -1038,7 +1038,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Customize a button to turn off the walkman</t>
+          <t>Use a smart speaker to pause the phone</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -1048,7 +1048,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Configure settings to automatically close the computer</t>
+          <t>Configure settings to automatically pause the computer</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -1058,7 +1058,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Use a smart speaker to exit the walkman</t>
+          <t>Use a smart speaker to pause the music</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -1068,7 +1068,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Customize a button to exit the walkman</t>
+          <t>turn off the guitar</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -1078,7 +1078,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Use a smart speaker to exit the guitar</t>
+          <t>Use a smart speaker to pause the mp3</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -1088,7 +1088,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Customize a button to turn off the earphone</t>
+          <t>stop the computer</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -1098,7 +1098,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>hit the turn off button</t>
+          <t>pause the walkman</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -1108,7 +1108,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Use a smart speaker to close the earphone</t>
+          <t>pause the music</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -1118,7 +1118,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Customize a button to pause the music</t>
+          <t>turn off the guitar</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -1128,7 +1128,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Customize a button to stop the microphone</t>
+          <t>Use a smart speaker to pause the microphone</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -1138,7 +1138,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>exit the earphone</t>
+          <t>Use a smart speaker to close the phone</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -1148,7 +1148,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>stop the mp3</t>
+          <t>turn off the computer</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -1158,7 +1158,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>exit the walkman</t>
+          <t>Use a smart speaker to turn off the music</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -1168,7 +1168,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Use a smart speaker to turn off the guitar</t>
+          <t>Use a smart speaker to exit the walkman</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -1178,7 +1178,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>turn off the walkman</t>
+          <t>Use a smart speaker to exit the earphone</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -1188,7 +1188,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Use a smart speaker to close the computer</t>
+          <t>pause the mp3</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -1198,7 +1198,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Customize a button to exit the mp3</t>
+          <t>Use a smart speaker to turn off the guitar</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -1208,7 +1208,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Customize a button to turn off the phone</t>
+          <t>Configure settings to automatically pause the walkman</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -1218,7 +1218,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Use a smart speaker to pause the earphone</t>
+          <t>Configure settings to automatically stop the computer</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -1228,7 +1228,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Set a timer to close the guitar</t>
+          <t>Use a smart speaker to stop the microphone</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -1238,7 +1238,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>turn off the microphone</t>
+          <t>Use a smart speaker to exit the phone</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -1248,7 +1248,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Set a timer to pause the microphone</t>
+          <t>Use a smart speaker to close the walkman</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -1258,7 +1258,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Customize a button to turn off the microphone</t>
+          <t>turn off the earphone</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -1268,7 +1268,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Use a smart speaker to exit the phone</t>
+          <t>close the earphone</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -1278,7 +1278,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Use a smart speaker to pause the mp3</t>
+          <t>Use a smart speaker to close the mp3</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -1288,7 +1288,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Customize a button to pause the computer</t>
+          <t>turn off the microphone</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -1298,7 +1298,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Set a timer to close the mp3</t>
+          <t>Use a smart speaker to stop the mp3</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -1308,7 +1308,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Use a smart speaker to exit the walkman</t>
+          <t>hit the exit button</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -1318,7 +1318,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Configure settings to automatically close the phone</t>
+          <t>exit the computer</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -1328,7 +1328,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Use a smart speaker to exit the phone</t>
+          <t>pause the guitar</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -1338,7 +1338,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Set a timer to stop the mp3</t>
+          <t>Use a smart speaker to stop the guitar</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -1348,7 +1348,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>pause the computer</t>
+          <t>exit the phone</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -1358,7 +1358,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Configure settings to automatically exit the earphone</t>
+          <t>pause the mp3</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -1368,7 +1368,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Use a smart speaker to exit the microphone</t>
+          <t>Use a smart speaker to turn off the earphone</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -1378,7 +1378,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Use a smart speaker to close the earphone</t>
+          <t>Use a smart speaker to turn off the guitar</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -1388,7 +1388,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Customize a button to close the computer</t>
+          <t>Use a smart speaker to turn off the phone</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -1398,7 +1398,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>exit the phone</t>
+          <t>hit the pause button</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -1408,7 +1408,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>close the microphone</t>
+          <t>Use a smart speaker to pause the walkman</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -1418,7 +1418,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>turn off the earphone</t>
+          <t>Use a smart speaker to pause the microphone</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -1428,7 +1428,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>pause the mp3</t>
+          <t>hit the close button</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -1438,7 +1438,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Set a timer to turn off the guitar</t>
+          <t>exit the computer</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -1448,7 +1448,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Customize a button to stop the mp3</t>
+          <t>Use a smart speaker to pause the computer</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -1458,7 +1458,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Use a smart speaker to stop the microphone</t>
+          <t>Use a smart speaker to close the walkman</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -1468,7 +1468,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Use a smart speaker to close the earphone</t>
+          <t>pause the music</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -1478,7 +1478,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Configure settings to automatically close the computer</t>
+          <t>Configure settings to automatically stop the mp3</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -1488,7 +1488,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Set a timer to stop the guitar</t>
+          <t>Use a smart speaker to turn off the phone</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -1498,7 +1498,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Customize a button to pause the guitar</t>
+          <t>Use a smart speaker to exit the computer</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -1508,7 +1508,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>close the computer</t>
+          <t>stop the music</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -1518,7 +1518,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Set a timer to close the guitar</t>
+          <t>Configure settings to automatically stop the walkman</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -1528,7 +1528,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Configure settings to automatically close the mp3</t>
+          <t>Use a smart speaker to close the microphone</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -1538,7 +1538,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Configure settings to automatically stop the music</t>
+          <t>pause the walkman</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -1548,7 +1548,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>turn off the computer</t>
+          <t>pause the music</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -1558,7 +1558,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Configure settings to automatically stop the earphone</t>
+          <t>close the microphone</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -1568,7 +1568,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>close the walkman</t>
+          <t>close the phone</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -1578,7 +1578,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>close the computer</t>
+          <t>Use a smart speaker to pause the earphone</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -1588,7 +1588,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Use a smart speaker to turn off the walkman</t>
+          <t>exit the walkman</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -1598,7 +1598,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>stop the microphone</t>
+          <t>Use a smart speaker to pause the walkman</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -1608,7 +1608,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Configure settings to automatically turn off the earphone</t>
+          <t>stop the walkman</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -1618,7 +1618,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Customize a button to turn off the computer</t>
+          <t>pause the mp3</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -1628,7 +1628,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Set a timer to turn off the phone</t>
+          <t>Use a smart speaker to close the guitar</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -1638,7 +1638,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>turn off the mp3</t>
+          <t>Configure settings to automatically pause the music</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -1648,7 +1648,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Configure settings to automatically turn off the guitar</t>
+          <t>stop the earphone</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -1658,7 +1658,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>pause the music</t>
+          <t>Use a smart speaker to stop the guitar</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -1668,7 +1668,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Configure settings to automatically stop the music</t>
+          <t>pause the computer</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -1678,7 +1678,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Use a smart speaker to turn off the music</t>
+          <t>Use a smart speaker to close the computer</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -1688,7 +1688,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Use a smart speaker to stop the earphone</t>
+          <t>close the earphone</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -1698,7 +1698,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Set a timer to pause the microphone</t>
+          <t>Use a smart speaker to close the phone</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -1708,7 +1708,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Use a smart speaker to close the music</t>
+          <t>Use a smart speaker to pause the music</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -1718,7 +1718,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Configure settings to automatically turn off the walkman</t>
+          <t>Use a smart speaker to exit the music</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -1728,7 +1728,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Use a smart speaker to exit the music</t>
+          <t>Configure settings to automatically stop the earphone</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -1738,7 +1738,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Use a smart speaker to close the walkman</t>
+          <t>Configure settings to automatically pause the computer</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -1748,7 +1748,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Customize a button to exit the computer</t>
+          <t>turn off the computer</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -1758,7 +1758,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>stop the mp3</t>
+          <t>Use a smart speaker to exit the music</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -1768,7 +1768,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>exit the computer</t>
+          <t>turn off the music</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -1778,7 +1778,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Configure settings to automatically close the earphone</t>
+          <t>stop the phone</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -1788,7 +1788,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Customize a button to turn off the music</t>
+          <t>pause the earphone</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -1798,7 +1798,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Customize a button to pause the phone</t>
+          <t>exit the computer</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -1808,7 +1808,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Set a timer to close the mp3</t>
+          <t>turn off the microphone</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -1818,7 +1818,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>stop the walkman</t>
+          <t>Use a smart speaker to stop the microphone</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -1828,7 +1828,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>exit the earphone</t>
+          <t>stop the phone</t>
         </is>
       </c>
       <c r="B140" t="n">
@@ -1838,7 +1838,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Set a timer to close the microphone</t>
+          <t>Use a smart speaker to exit the earphone</t>
         </is>
       </c>
       <c r="B141" t="n">
@@ -1848,7 +1848,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>close the walkman</t>
+          <t>Use a smart speaker to stop the computer</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -1858,7 +1858,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Customize a button to pause the phone</t>
+          <t>close the microphone</t>
         </is>
       </c>
       <c r="B143" t="n">
@@ -1868,7 +1868,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Customize a button to pause the guitar</t>
+          <t>Use a smart speaker to pause the guitar</t>
         </is>
       </c>
       <c r="B144" t="n">
@@ -1878,7 +1878,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>hit the pause button</t>
+          <t>turn off the walkman</t>
         </is>
       </c>
       <c r="B145" t="n">
@@ -1888,7 +1888,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Use a smart speaker to turn off the phone</t>
+          <t>Configure settings to automatically pause the phone</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -1898,7 +1898,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Customize a button to close the walkman</t>
+          <t>stop the earphone</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -1908,7 +1908,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Use a smart speaker to turn off the computer</t>
+          <t>pause the computer</t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -1918,7 +1918,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Customize a button to pause the computer</t>
+          <t>Configure settings to automatically pause the walkman</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -1928,7 +1928,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Set a timer to turn off the guitar</t>
+          <t>Configure settings to automatically pause the microphone</t>
         </is>
       </c>
       <c r="B150" t="n">
@@ -1938,7 +1938,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Set a timer to pause the earphone</t>
+          <t>pause the walkman</t>
         </is>
       </c>
       <c r="B151" t="n">
@@ -1948,7 +1948,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>close the computer</t>
+          <t>Use a smart speaker to pause the music</t>
         </is>
       </c>
       <c r="B152" t="n">
@@ -1958,7 +1958,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Customize a button to pause the music</t>
+          <t>Use a smart speaker to exit the microphone</t>
         </is>
       </c>
       <c r="B153" t="n">
@@ -1968,7 +1968,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Set a timer to exit the guitar</t>
+          <t>Use a smart speaker to exit the mp3</t>
         </is>
       </c>
       <c r="B154" t="n">
@@ -1978,7 +1978,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Configure settings to automatically pause the walkman</t>
+          <t>hit the close button</t>
         </is>
       </c>
       <c r="B155" t="n">
@@ -1988,7 +1988,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>turn off the mp3</t>
+          <t>pause the phone</t>
         </is>
       </c>
       <c r="B156" t="n">
@@ -1998,7 +1998,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Set a timer to turn off the guitar</t>
+          <t>Use a smart speaker to pause the phone</t>
         </is>
       </c>
       <c r="B157" t="n">
@@ -2008,7 +2008,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Set a timer to pause the music</t>
+          <t>Use a smart speaker to turn off the guitar</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -2018,7 +2018,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>turn off the computer</t>
+          <t>Use a smart speaker to pause the microphone</t>
         </is>
       </c>
       <c r="B159" t="n">
@@ -2028,7 +2028,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Set a timer to exit the guitar</t>
+          <t>Configure settings to automatically stop the earphone</t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -2038,7 +2038,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Configure settings to automatically turn off the earphone</t>
+          <t>close the earphone</t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -2048,7 +2048,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>close the mp3</t>
+          <t>exit the computer</t>
         </is>
       </c>
       <c r="B162" t="n">
@@ -2058,7 +2058,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Configure settings to automatically pause the music</t>
+          <t>Use a smart speaker to pause the phone</t>
         </is>
       </c>
       <c r="B163" t="n">
@@ -2068,7 +2068,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Use a smart speaker to exit the guitar</t>
+          <t>stop the music</t>
         </is>
       </c>
       <c r="B164" t="n">
@@ -2078,7 +2078,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Customize a button to pause the phone</t>
+          <t>stop the mp3</t>
         </is>
       </c>
       <c r="B165" t="n">
@@ -2088,7 +2088,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>close the microphone</t>
+          <t>Use a smart speaker to turn off the microphone</t>
         </is>
       </c>
       <c r="B166" t="n">
@@ -2098,7 +2098,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Use a smart speaker to close the microphone</t>
+          <t>close the microphone</t>
         </is>
       </c>
       <c r="B167" t="n">
@@ -2108,7 +2108,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Use a smart speaker to stop the walkman</t>
+          <t>Use a smart speaker to close the guitar</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -2118,7 +2118,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Customize a button to close the walkman</t>
+          <t>exit the mp3</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -2128,7 +2128,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>hit the exit button</t>
+          <t>Configure settings to automatically pause the computer</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -2138,7 +2138,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>close the guitar</t>
+          <t>Use a smart speaker to stop the microphone</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -2148,7 +2148,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>turn off the computer</t>
+          <t>Use a smart speaker to turn off the music</t>
         </is>
       </c>
       <c r="B172" t="n">
@@ -2158,7 +2158,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>exit the phone</t>
+          <t>turn off the guitar</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -2168,7 +2168,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Set a timer to turn off the computer</t>
+          <t>Configure settings to automatically pause the earphone</t>
         </is>
       </c>
       <c r="B174" t="n">
@@ -2178,7 +2178,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Customize a button to stop the computer</t>
+          <t>exit the guitar</t>
         </is>
       </c>
       <c r="B175" t="n">
@@ -2188,7 +2188,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Configure settings to automatically pause the earphone</t>
+          <t>stop the phone</t>
         </is>
       </c>
       <c r="B176" t="n">
@@ -2198,7 +2198,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>close the microphone</t>
+          <t>turn off the music</t>
         </is>
       </c>
       <c r="B177" t="n">
@@ -2208,7 +2208,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>exit the earphone</t>
+          <t>close the music</t>
         </is>
       </c>
       <c r="B178" t="n">
@@ -2218,7 +2218,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Customize a button to pause the computer</t>
+          <t>Use a smart speaker to pause the computer</t>
         </is>
       </c>
       <c r="B179" t="n">
@@ -2228,7 +2228,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Use a smart speaker to stop the music</t>
+          <t>Configure settings to automatically stop the earphone</t>
         </is>
       </c>
       <c r="B180" t="n">
@@ -2238,7 +2238,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Use a smart speaker to pause the microphone</t>
+          <t>Use a smart speaker to pause the music</t>
         </is>
       </c>
       <c r="B181" t="n">
@@ -2248,7 +2248,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>stop the mp3</t>
+          <t>Configure settings to automatically stop the walkman</t>
         </is>
       </c>
       <c r="B182" t="n">
@@ -2258,7 +2258,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Use a smart speaker to exit the earphone</t>
+          <t>Configure settings to automatically stop the phone</t>
         </is>
       </c>
       <c r="B183" t="n">
@@ -2268,7 +2268,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Use a smart speaker to pause the earphone</t>
+          <t>pause the earphone</t>
         </is>
       </c>
       <c r="B184" t="n">
@@ -2278,7 +2278,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>close the computer</t>
+          <t>Configure settings to automatically stop the phone</t>
         </is>
       </c>
       <c r="B185" t="n">
@@ -2288,7 +2288,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Configure settings to automatically exit the microphone</t>
+          <t>Use a smart speaker to exit the earphone</t>
         </is>
       </c>
       <c r="B186" t="n">
@@ -2298,7 +2298,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Configure settings to automatically pause the phone</t>
+          <t>Configure settings to automatically stop the phone</t>
         </is>
       </c>
       <c r="B187" t="n">
@@ -2308,7 +2308,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Configure settings to automatically turn off the computer</t>
+          <t>hit the turn off button</t>
         </is>
       </c>
       <c r="B188" t="n">
@@ -2318,7 +2318,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Set a timer to stop the walkman</t>
+          <t>stop the phone</t>
         </is>
       </c>
       <c r="B189" t="n">
@@ -2338,7 +2338,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Use a smart speaker to close the computer</t>
+          <t>Use a smart speaker to close the microphone</t>
         </is>
       </c>
       <c r="B191" t="n">
@@ -2348,7 +2348,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>exit the microphone</t>
+          <t>Use a smart speaker to pause the guitar</t>
         </is>
       </c>
       <c r="B192" t="n">
@@ -2358,7 +2358,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Configure settings to automatically exit the earphone</t>
+          <t>Use a smart speaker to exit the mp3</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -2368,7 +2368,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>exit the computer</t>
+          <t>Use a smart speaker to close the earphone</t>
         </is>
       </c>
       <c r="B194" t="n">
@@ -2378,7 +2378,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Configure settings to automatically stop the guitar</t>
+          <t>hit the exit button</t>
         </is>
       </c>
       <c r="B195" t="n">
@@ -2388,7 +2388,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>pause the mp3</t>
+          <t>stop the walkman</t>
         </is>
       </c>
       <c r="B196" t="n">
@@ -2398,7 +2398,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Customize a button to exit the computer</t>
+          <t>close the mp3</t>
         </is>
       </c>
       <c r="B197" t="n">
@@ -2408,7 +2408,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Use a smart speaker to close the phone</t>
+          <t>exit the phone</t>
         </is>
       </c>
       <c r="B198" t="n">
@@ -2418,7 +2418,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Configure settings to automatically turn off the phone</t>
+          <t>Use a smart speaker to turn off the earphone</t>
         </is>
       </c>
       <c r="B199" t="n">
@@ -2428,7 +2428,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>turn off the walkman</t>
+          <t>pause the microphone</t>
         </is>
       </c>
       <c r="B200" t="n">
@@ -2438,7 +2438,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Set a timer to pause the mp3</t>
+          <t>Configure settings to automatically pause the computer</t>
         </is>
       </c>
       <c r="B201" t="n">
@@ -2448,7 +2448,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Set a timer to pause the earphone</t>
+          <t>stop the music</t>
         </is>
       </c>
       <c r="B202" t="n">
@@ -2458,7 +2458,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Use a smart speaker to turn off the phone</t>
+          <t>Use a smart speaker to close the guitar</t>
         </is>
       </c>
       <c r="B203" t="n">
@@ -2468,7 +2468,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Set a timer to pause the walkman</t>
+          <t>Configure settings to automatically stop the phone</t>
         </is>
       </c>
       <c r="B204" t="n">
@@ -2478,7 +2478,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Use a smart speaker to turn off the guitar</t>
+          <t>Use a smart speaker to turn off the microphone</t>
         </is>
       </c>
       <c r="B205" t="n">
@@ -2488,7 +2488,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Use a smart speaker to pause the music</t>
+          <t>Use a smart speaker to stop the mp3</t>
         </is>
       </c>
       <c r="B206" t="n">
@@ -2498,7 +2498,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Configure settings to automatically pause the earphone</t>
+          <t>Use a smart speaker to pause the guitar</t>
         </is>
       </c>
       <c r="B207" t="n">
@@ -2508,7 +2508,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>stop the guitar</t>
+          <t>Configure settings to automatically pause the walkman</t>
         </is>
       </c>
       <c r="B208" t="n">
@@ -2518,7 +2518,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Use a smart speaker to pause the music</t>
+          <t>exit the guitar</t>
         </is>
       </c>
       <c r="B209" t="n">
@@ -2528,7 +2528,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>exit the earphone</t>
+          <t>Configure settings to automatically pause the microphone</t>
         </is>
       </c>
       <c r="B210" t="n">
@@ -2538,7 +2538,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Use a smart speaker to turn off the mp3</t>
+          <t>stop the computer</t>
         </is>
       </c>
       <c r="B211" t="n">
@@ -2548,7 +2548,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Customize a button to pause the microphone</t>
+          <t>Configure settings to automatically pause the music</t>
         </is>
       </c>
       <c r="B212" t="n">
@@ -2558,7 +2558,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Set a timer to turn off the guitar</t>
+          <t>Use a smart speaker to turn off the guitar</t>
         </is>
       </c>
       <c r="B213" t="n">
@@ -2568,7 +2568,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>turn off the earphone</t>
+          <t>turn off the microphone</t>
         </is>
       </c>
       <c r="B214" t="n">
@@ -2578,7 +2578,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Customize a button to close the computer</t>
+          <t>Use a smart speaker to close the mp3</t>
         </is>
       </c>
       <c r="B215" t="n">
@@ -2588,7 +2588,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Customize a button to exit the microphone</t>
+          <t>Use a smart speaker to pause the earphone</t>
         </is>
       </c>
       <c r="B216" t="n">
@@ -2598,7 +2598,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>hit the turn off button</t>
+          <t>exit the guitar</t>
         </is>
       </c>
       <c r="B217" t="n">
@@ -2608,7 +2608,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Use a smart speaker to pause the mp3</t>
+          <t>Use a smart speaker to exit the computer</t>
         </is>
       </c>
       <c r="B218" t="n">
@@ -2618,7 +2618,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Use a smart speaker to stop the earphone</t>
+          <t>Configure settings to automatically pause the mp3</t>
         </is>
       </c>
       <c r="B219" t="n">
@@ -2628,7 +2628,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Configure settings to automatically close the guitar</t>
+          <t>Configure settings to automatically stop the computer</t>
         </is>
       </c>
       <c r="B220" t="n">
@@ -2638,7 +2638,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>exit the music</t>
+          <t>Use a smart speaker to close the computer</t>
         </is>
       </c>
       <c r="B221" t="n">
@@ -2648,7 +2648,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>stop the mp3</t>
+          <t>stop the phone</t>
         </is>
       </c>
       <c r="B222" t="n">
@@ -2658,7 +2658,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Customize a button to close the music</t>
+          <t>turn off the guitar</t>
         </is>
       </c>
       <c r="B223" t="n">
@@ -2668,7 +2668,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Configure settings to automatically turn off the earphone</t>
+          <t>exit the earphone</t>
         </is>
       </c>
       <c r="B224" t="n">
@@ -2678,7 +2678,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Set a timer to close the microphone</t>
+          <t>exit the phone</t>
         </is>
       </c>
       <c r="B225" t="n">
@@ -2688,7 +2688,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Use a smart speaker to close the computer</t>
+          <t>Use a smart speaker to exit the mp3</t>
         </is>
       </c>
       <c r="B226" t="n">
@@ -2698,7 +2698,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Use a smart speaker to exit the earphone</t>
+          <t>stop the guitar</t>
         </is>
       </c>
       <c r="B227" t="n">
@@ -2708,7 +2708,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>exit the music</t>
+          <t>pause the earphone</t>
         </is>
       </c>
       <c r="B228" t="n">
@@ -2718,7 +2718,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>hit the turn off button</t>
+          <t>Configure settings to automatically pause the walkman</t>
         </is>
       </c>
       <c r="B229" t="n">
@@ -2728,7 +2728,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Customize a button to exit the earphone</t>
+          <t>Use a smart speaker to exit the computer</t>
         </is>
       </c>
       <c r="B230" t="n">
@@ -2738,7 +2738,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>stop the microphone</t>
+          <t>Use a smart speaker to turn off the microphone</t>
         </is>
       </c>
       <c r="B231" t="n">
@@ -2748,7 +2748,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>pause the phone</t>
+          <t>Use a smart speaker to exit the guitar</t>
         </is>
       </c>
       <c r="B232" t="n">
@@ -2758,7 +2758,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Customize a button to close the computer</t>
+          <t>Use a smart speaker to exit the earphone</t>
         </is>
       </c>
       <c r="B233" t="n">
@@ -2768,7 +2768,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Configure settings to automatically exit the music</t>
+          <t>pause the music</t>
         </is>
       </c>
       <c r="B234" t="n">
@@ -2778,7 +2778,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Use a smart speaker to pause the walkman</t>
+          <t>Use a smart speaker to pause the phone</t>
         </is>
       </c>
       <c r="B235" t="n">
@@ -2788,7 +2788,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Use a smart speaker to pause the phone</t>
+          <t>Configure settings to automatically pause the guitar</t>
         </is>
       </c>
       <c r="B236" t="n">
@@ -2798,7 +2798,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Customize a button to close the walkman</t>
+          <t>Use a smart speaker to exit the guitar</t>
         </is>
       </c>
       <c r="B237" t="n">
@@ -2808,7 +2808,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Set a timer to close the computer</t>
+          <t>Use a smart speaker to stop the walkman</t>
         </is>
       </c>
       <c r="B238" t="n">
@@ -2818,7 +2818,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Set a timer to pause the mp3</t>
+          <t>Use a smart speaker to exit the mp3</t>
         </is>
       </c>
       <c r="B239" t="n">
@@ -2828,7 +2828,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>close the microphone</t>
+          <t>Use a smart speaker to turn off the mp3</t>
         </is>
       </c>
       <c r="B240" t="n">
@@ -2838,7 +2838,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Set a timer to pause the walkman</t>
+          <t>exit the phone</t>
         </is>
       </c>
       <c r="B241" t="n">
@@ -2848,7 +2848,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Customize a button to turn off the computer</t>
+          <t>Use a smart speaker to pause the guitar</t>
         </is>
       </c>
       <c r="B242" t="n">
@@ -2858,7 +2858,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Customize a button to exit the mp3</t>
+          <t>Configure settings to automatically stop the computer</t>
         </is>
       </c>
       <c r="B243" t="n">
@@ -2868,7 +2868,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Customize a button to pause the music</t>
+          <t>turn off the walkman</t>
         </is>
       </c>
       <c r="B244" t="n">
@@ -2878,7 +2878,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Configure settings to automatically stop the guitar</t>
+          <t>pause the earphone</t>
         </is>
       </c>
       <c r="B245" t="n">
@@ -2888,7 +2888,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>stop the mp3</t>
+          <t>Use a smart speaker to pause the walkman</t>
         </is>
       </c>
       <c r="B246" t="n">
@@ -2898,7 +2898,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Customize a button to exit the mp3</t>
+          <t>stop the walkman</t>
         </is>
       </c>
       <c r="B247" t="n">
@@ -2908,7 +2908,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Configure settings to automatically close the computer</t>
+          <t>stop the earphone</t>
         </is>
       </c>
       <c r="B248" t="n">
@@ -2918,7 +2918,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Set a timer to pause the guitar</t>
+          <t>close the music</t>
         </is>
       </c>
       <c r="B249" t="n">
@@ -2928,7 +2928,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Use a smart speaker to stop the guitar</t>
+          <t>exit the computer</t>
         </is>
       </c>
       <c r="B250" t="n">
@@ -2938,7 +2938,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Configure settings to automatically pause the phone</t>
+          <t>Use a smart speaker to exit the music</t>
         </is>
       </c>
       <c r="B251" t="n">
@@ -2948,7 +2948,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Set a timer to close the phone</t>
+          <t>Use a smart speaker to turn off the walkman</t>
         </is>
       </c>
       <c r="B252" t="n">
@@ -2958,7 +2958,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Use a smart speaker to exit the walkman</t>
+          <t>Use a smart speaker to stop the earphone</t>
         </is>
       </c>
       <c r="B253" t="n">
@@ -2968,7 +2968,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Customize a button to close the earphone</t>
+          <t>stop the phone</t>
         </is>
       </c>
       <c r="B254" t="n">
@@ -2978,7 +2978,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Use a smart speaker to stop the mp3</t>
+          <t>stop the mp3</t>
         </is>
       </c>
       <c r="B255" t="n">
@@ -2988,7 +2988,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Configure settings to automatically close the computer</t>
+          <t>Use a smart speaker to turn off the mp3</t>
         </is>
       </c>
       <c r="B256" t="n">
@@ -2998,7 +2998,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Customize a button to turn off the earphone</t>
+          <t>Use a smart speaker to pause the music</t>
         </is>
       </c>
       <c r="B257" t="n">
@@ -3008,7 +3008,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>pause the phone</t>
+          <t>hit the close button</t>
         </is>
       </c>
       <c r="B258" t="n">
@@ -3018,7 +3018,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>turn off the computer</t>
+          <t>Configure settings to automatically pause the music</t>
         </is>
       </c>
       <c r="B259" t="n">
@@ -3028,7 +3028,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>close the mp3</t>
+          <t>turn off the music</t>
         </is>
       </c>
       <c r="B260" t="n">
@@ -3038,7 +3038,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Use a smart speaker to exit the computer</t>
+          <t>close the music</t>
         </is>
       </c>
       <c r="B261" t="n">
@@ -3048,7 +3048,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>pause the phone</t>
+          <t>stop the walkman</t>
         </is>
       </c>
       <c r="B262" t="n">
@@ -3058,7 +3058,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Set a timer to close the computer</t>
+          <t>Configure settings to automatically pause the earphone</t>
         </is>
       </c>
       <c r="B263" t="n">
@@ -3068,7 +3068,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Configure settings to automatically close the phone</t>
+          <t>close the music</t>
         </is>
       </c>
       <c r="B264" t="n">
@@ -3078,7 +3078,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Use a smart speaker to pause the earphone</t>
+          <t>Configure settings to automatically pause the phone</t>
         </is>
       </c>
       <c r="B265" t="n">
@@ -3088,7 +3088,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Set a timer to close the walkman</t>
+          <t>Configure settings to automatically stop the mp3</t>
         </is>
       </c>
       <c r="B266" t="n">
@@ -3098,7 +3098,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Use a smart speaker to pause the computer</t>
+          <t>close the earphone</t>
         </is>
       </c>
       <c r="B267" t="n">
@@ -3108,7 +3108,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Configure settings to automatically pause the mp3</t>
+          <t>Configure settings to automatically stop the computer</t>
         </is>
       </c>
       <c r="B268" t="n">
@@ -3118,7 +3118,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Use a smart speaker to close the guitar</t>
+          <t>pause the mp3</t>
         </is>
       </c>
       <c r="B269" t="n">
@@ -3128,7 +3128,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Set a timer to turn off the guitar</t>
+          <t>turn off the walkman</t>
         </is>
       </c>
       <c r="B270" t="n">
@@ -3138,7 +3138,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Set a timer to turn off the phone</t>
+          <t>Use a smart speaker to close the guitar</t>
         </is>
       </c>
       <c r="B271" t="n">
@@ -3148,7 +3148,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Use a smart speaker to pause the computer</t>
+          <t>Configure settings to automatically pause the walkman</t>
         </is>
       </c>
       <c r="B272" t="n">
@@ -3158,7 +3158,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>turn off the phone</t>
+          <t>Use a smart speaker to stop the earphone</t>
         </is>
       </c>
       <c r="B273" t="n">
@@ -3168,7 +3168,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Use a smart speaker to turn off the earphone</t>
+          <t>stop the mp3</t>
         </is>
       </c>
       <c r="B274" t="n">
@@ -3178,7 +3178,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Configure settings to automatically exit the earphone</t>
+          <t>exit the phone</t>
         </is>
       </c>
       <c r="B275" t="n">
@@ -3188,7 +3188,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>pause the microphone</t>
+          <t>close the microphone</t>
         </is>
       </c>
       <c r="B276" t="n">
@@ -3198,7 +3198,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Set a timer to stop the guitar</t>
+          <t>Configure settings to automatically pause the earphone</t>
         </is>
       </c>
       <c r="B277" t="n">
@@ -3208,7 +3208,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>pause the microphone</t>
+          <t>Use a smart speaker to close the mp3</t>
         </is>
       </c>
       <c r="B278" t="n">
@@ -3218,7 +3218,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Use a smart speaker to close the phone</t>
+          <t>Configure settings to automatically pause the music</t>
         </is>
       </c>
       <c r="B279" t="n">
@@ -3228,7 +3228,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Set a timer to turn off the walkman</t>
+          <t>Configure settings to automatically stop the microphone</t>
         </is>
       </c>
       <c r="B280" t="n">
@@ -3238,7 +3238,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Customize a button to turn off the mp3</t>
+          <t>Configure settings to automatically stop the guitar</t>
         </is>
       </c>
       <c r="B281" t="n">
@@ -3248,7 +3248,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Set a timer to close the mp3</t>
+          <t>pause the phone</t>
         </is>
       </c>
       <c r="B282" t="n">
@@ -3258,7 +3258,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>pause the phone</t>
+          <t>Configure settings to automatically stop the guitar</t>
         </is>
       </c>
       <c r="B283" t="n">
@@ -3268,7 +3268,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Configure settings to automatically close the walkman</t>
+          <t>Configure settings to automatically pause the guitar</t>
         </is>
       </c>
       <c r="B284" t="n">
@@ -3278,7 +3278,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Use a smart speaker to close the microphone</t>
+          <t>exit the guitar</t>
         </is>
       </c>
       <c r="B285" t="n">
@@ -3288,7 +3288,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Set a timer to pause the mp3</t>
+          <t>Use a smart speaker to close the music</t>
         </is>
       </c>
       <c r="B286" t="n">
@@ -3298,7 +3298,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Customize a button to stop the earphone</t>
+          <t>Configure settings to automatically stop the guitar</t>
         </is>
       </c>
       <c r="B287" t="n">
@@ -3308,7 +3308,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Use a smart speaker to exit the phone</t>
+          <t>Use a smart speaker to stop the earphone</t>
         </is>
       </c>
       <c r="B288" t="n">
@@ -3318,7 +3318,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Use a smart speaker to pause the walkman</t>
+          <t>exit the guitar</t>
         </is>
       </c>
       <c r="B289" t="n">
@@ -3328,7 +3328,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Customize a button to stop the microphone</t>
+          <t>Use a smart speaker to exit the earphone</t>
         </is>
       </c>
       <c r="B290" t="n">
@@ -3338,7 +3338,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Configure settings to automatically turn off the computer</t>
+          <t>Use a smart speaker to exit the music</t>
         </is>
       </c>
       <c r="B291" t="n">
@@ -3348,7 +3348,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Use a smart speaker to stop the guitar</t>
+          <t>pause the guitar</t>
         </is>
       </c>
       <c r="B292" t="n">
@@ -3358,7 +3358,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Use a smart speaker to stop the music</t>
+          <t>Configure settings to automatically stop the phone</t>
         </is>
       </c>
       <c r="B293" t="n">
@@ -3368,7 +3368,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>turn off the guitar</t>
+          <t>Use a smart speaker to pause the phone</t>
         </is>
       </c>
       <c r="B294" t="n">
@@ -3378,7 +3378,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Customize a button to turn off the microphone</t>
+          <t>exit the computer</t>
         </is>
       </c>
       <c r="B295" t="n">
@@ -3388,7 +3388,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Configure settings to automatically stop the computer</t>
+          <t>exit the guitar</t>
         </is>
       </c>
       <c r="B296" t="n">
@@ -3398,7 +3398,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Customize a button to pause the mp3</t>
+          <t>Use a smart speaker to pause the computer</t>
         </is>
       </c>
       <c r="B297" t="n">
@@ -3408,7 +3408,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>close the phone</t>
+          <t>Configure settings to automatically stop the computer</t>
         </is>
       </c>
       <c r="B298" t="n">
@@ -3418,7 +3418,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Customize a button to exit the earphone</t>
+          <t>Use a smart speaker to pause the guitar</t>
         </is>
       </c>
       <c r="B299" t="n">
@@ -3428,7 +3428,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Use a smart speaker to exit the earphone</t>
+          <t>stop the earphone</t>
         </is>
       </c>
       <c r="B300" t="n">
@@ -3438,7 +3438,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Customize a button to turn off the microphone</t>
+          <t>Configure settings to automatically pause the guitar</t>
         </is>
       </c>
       <c r="B301" t="n">
@@ -3448,7 +3448,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Use a smart speaker to turn off the earphone</t>
+          <t>Use a smart speaker to close the earphone</t>
         </is>
       </c>
       <c r="B302" t="n">
@@ -3458,7 +3458,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Configure settings to automatically pause the mp3</t>
+          <t>Use a smart speaker to close the computer</t>
         </is>
       </c>
       <c r="B303" t="n">
@@ -3468,7 +3468,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Customize a button to pause the guitar</t>
+          <t>pause the mp3</t>
         </is>
       </c>
       <c r="B304" t="n">
@@ -3478,7 +3478,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>hit the exit button</t>
+          <t>pause the earphone</t>
         </is>
       </c>
       <c r="B305" t="n">
@@ -3488,7 +3488,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Set a timer to turn off the phone</t>
+          <t>close the guitar</t>
         </is>
       </c>
       <c r="B306" t="n">
@@ -3498,7 +3498,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>pause the microphone</t>
+          <t>hit the pause button</t>
         </is>
       </c>
       <c r="B307" t="n">
@@ -3508,7 +3508,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Customize a button to stop the phone</t>
+          <t>Use a smart speaker to exit the mp3</t>
         </is>
       </c>
       <c r="B308" t="n">
@@ -3518,7 +3518,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Configure settings to automatically turn off the guitar</t>
+          <t>turn off the music</t>
         </is>
       </c>
       <c r="B309" t="n">
@@ -3528,7 +3528,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>hit the close button</t>
+          <t>hit the stop button</t>
         </is>
       </c>
       <c r="B310" t="n">
@@ -3538,7 +3538,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>close the guitar</t>
+          <t>Use a smart speaker to stop the phone</t>
         </is>
       </c>
       <c r="B311" t="n">
@@ -3548,7 +3548,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Customize a button to turn off the mp3</t>
+          <t>Configure settings to automatically pause the walkman</t>
         </is>
       </c>
       <c r="B312" t="n">
@@ -3558,7 +3558,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Customize a button to exit the computer</t>
+          <t>Configure settings to automatically stop the phone</t>
         </is>
       </c>
       <c r="B313" t="n">
@@ -3568,7 +3568,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Set a timer to exit the phone</t>
+          <t>exit the walkman</t>
         </is>
       </c>
       <c r="B314" t="n">
@@ -3578,7 +3578,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>turn off the music</t>
+          <t>Configure settings to automatically pause the computer</t>
         </is>
       </c>
       <c r="B315" t="n">
@@ -3588,7 +3588,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Customize a button to close the mp3</t>
+          <t>Use a smart speaker to close the phone</t>
         </is>
       </c>
       <c r="B316" t="n">
@@ -3598,7 +3598,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Customize a button to exit the music</t>
+          <t>turn off the microphone</t>
         </is>
       </c>
       <c r="B317" t="n">
@@ -3608,7 +3608,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Configure settings to automatically stop the microphone</t>
+          <t>turn off the phone</t>
         </is>
       </c>
       <c r="B318" t="n">
@@ -3618,7 +3618,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>close the walkman</t>
+          <t>Use a smart speaker to close the guitar</t>
         </is>
       </c>
       <c r="B319" t="n">
@@ -3628,7 +3628,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>stop the microphone</t>
+          <t>Configure settings to automatically stop the walkman</t>
         </is>
       </c>
       <c r="B320" t="n">
@@ -3638,7 +3638,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Customize a button to exit the music</t>
+          <t>hit the pause button</t>
         </is>
       </c>
       <c r="B321" t="n">
@@ -3648,7 +3648,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Set a timer to pause the walkman</t>
+          <t>Use a smart speaker to turn off the mp3</t>
         </is>
       </c>
       <c r="B322" t="n">
@@ -3658,7 +3658,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>close the music</t>
+          <t>Use a smart speaker to close the walkman</t>
         </is>
       </c>
       <c r="B323" t="n">
@@ -3668,7 +3668,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Customize a button to stop the guitar</t>
+          <t>hit the pause button</t>
         </is>
       </c>
       <c r="B324" t="n">
@@ -3678,7 +3678,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Set a timer to close the microphone</t>
+          <t>Use a smart speaker to turn off the earphone</t>
         </is>
       </c>
       <c r="B325" t="n">
@@ -3688,7 +3688,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Configure settings to automatically stop the mp3</t>
+          <t>stop the guitar</t>
         </is>
       </c>
       <c r="B326" t="n">
@@ -3698,7 +3698,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Use a smart speaker to pause the music</t>
+          <t>Configure settings to automatically stop the mp3</t>
         </is>
       </c>
       <c r="B327" t="n">
@@ -3708,7 +3708,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Customize a button to stop the walkman</t>
+          <t>stop the computer</t>
         </is>
       </c>
       <c r="B328" t="n">
@@ -3718,7 +3718,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>stop the earphone</t>
+          <t>Use a smart speaker to close the microphone</t>
         </is>
       </c>
       <c r="B329" t="n">
@@ -3728,7 +3728,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>turn off the guitar</t>
+          <t>Use a smart speaker to stop the earphone</t>
         </is>
       </c>
       <c r="B330" t="n">
@@ -3738,7 +3738,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Set a timer to turn off the computer</t>
+          <t>Use a smart speaker to exit the walkman</t>
         </is>
       </c>
       <c r="B331" t="n">
@@ -3748,7 +3748,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Use a smart speaker to stop the earphone</t>
+          <t>Configure settings to automatically stop the phone</t>
         </is>
       </c>
       <c r="B332" t="n">
@@ -3758,7 +3758,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Customize a button to turn off the mp3</t>
+          <t>Configure settings to automatically stop the computer</t>
         </is>
       </c>
       <c r="B333" t="n">
@@ -3768,7 +3768,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Customize a button to pause the earphone</t>
+          <t>Use a smart speaker to turn off the guitar</t>
         </is>
       </c>
       <c r="B334" t="n">
@@ -3778,7 +3778,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Customize a button to stop the guitar</t>
+          <t>close the microphone</t>
         </is>
       </c>
       <c r="B335" t="n">
@@ -3788,7 +3788,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Set a timer to close the earphone</t>
+          <t>Configure settings to automatically stop the mp3</t>
         </is>
       </c>
       <c r="B336" t="n">
@@ -3798,7 +3798,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>turn off the music</t>
+          <t>Use a smart speaker to turn off the music</t>
         </is>
       </c>
       <c r="B337" t="n">
@@ -3808,7 +3808,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>Customize a button to turn off the guitar</t>
+          <t>stop the computer</t>
         </is>
       </c>
       <c r="B338" t="n">
@@ -3818,7 +3818,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Configure settings to automatically pause the guitar</t>
+          <t>Use a smart speaker to stop the mp3</t>
         </is>
       </c>
       <c r="B339" t="n">
@@ -3828,7 +3828,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>Set a timer to close the earphone</t>
+          <t>Configure settings to automatically pause the guitar</t>
         </is>
       </c>
       <c r="B340" t="n">
@@ -3838,7 +3838,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>close the microphone</t>
+          <t>stop the walkman</t>
         </is>
       </c>
       <c r="B341" t="n">
@@ -3848,7 +3848,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>Use a smart speaker to turn off the music</t>
+          <t>pause the guitar</t>
         </is>
       </c>
       <c r="B342" t="n">
@@ -3858,7 +3858,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>Customize a button to turn off the mp3</t>
+          <t>hit the close button</t>
         </is>
       </c>
       <c r="B343" t="n">
@@ -3868,7 +3868,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Customize a button to stop the music</t>
+          <t>Use a smart speaker to turn off the phone</t>
         </is>
       </c>
       <c r="B344" t="n">
@@ -3878,7 +3878,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>turn off the computer</t>
+          <t>Use a smart speaker to close the mp3</t>
         </is>
       </c>
       <c r="B345" t="n">
@@ -3888,7 +3888,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>Customize a button to pause the earphone</t>
+          <t>Use a smart speaker to stop the microphone</t>
         </is>
       </c>
       <c r="B346" t="n">
@@ -3898,7 +3898,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>Use a smart speaker to pause the music</t>
+          <t>pause the microphone</t>
         </is>
       </c>
       <c r="B347" t="n">
@@ -3908,7 +3908,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>Set a timer to turn off the earphone</t>
+          <t>Use a smart speaker to close the walkman</t>
         </is>
       </c>
       <c r="B348" t="n">
@@ -3918,7 +3918,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Use a smart speaker to exit the walkman</t>
+          <t>exit the phone</t>
         </is>
       </c>
       <c r="B349" t="n">
@@ -3928,7 +3928,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>Customize a button to turn off the computer</t>
+          <t>turn off the music</t>
         </is>
       </c>
       <c r="B350" t="n">
@@ -3938,7 +3938,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>Configure settings to automatically stop the computer</t>
+          <t>Use a smart speaker to turn off the guitar</t>
         </is>
       </c>
       <c r="B351" t="n">
@@ -3948,7 +3948,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>Customize a button to exit the phone</t>
+          <t>Configure settings to automatically pause the phone</t>
         </is>
       </c>
       <c r="B352" t="n">
@@ -3958,7 +3958,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>Configure settings to automatically exit the computer</t>
+          <t>hit the exit button</t>
         </is>
       </c>
       <c r="B353" t="n">
@@ -3968,7 +3968,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>stop the microphone</t>
+          <t>close the phone</t>
         </is>
       </c>
       <c r="B354" t="n">
@@ -3978,7 +3978,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>Customize a button to pause the microphone</t>
+          <t>Configure settings to automatically stop the mp3</t>
         </is>
       </c>
       <c r="B355" t="n">
@@ -3988,7 +3988,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>Set a timer to stop the guitar</t>
+          <t>exit the mp3</t>
         </is>
       </c>
       <c r="B356" t="n">
@@ -3998,7 +3998,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>Set a timer to close the guitar</t>
+          <t>exit the music</t>
         </is>
       </c>
       <c r="B357" t="n">
@@ -4008,7 +4008,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>Configure settings to automatically stop the microphone</t>
+          <t>exit the walkman</t>
         </is>
       </c>
       <c r="B358" t="n">
@@ -4018,7 +4018,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>turn off the guitar</t>
+          <t>Configure settings to automatically pause the microphone</t>
         </is>
       </c>
       <c r="B359" t="n">
@@ -4028,7 +4028,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>Set a timer to stop the mp3</t>
+          <t>Use a smart speaker to close the walkman</t>
         </is>
       </c>
       <c r="B360" t="n">
@@ -4038,7 +4038,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>Configure settings to automatically turn off the earphone</t>
+          <t>Use a smart speaker to exit the mp3</t>
         </is>
       </c>
       <c r="B361" t="n">
@@ -4048,7 +4048,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>Customize a button to exit the mp3</t>
+          <t>Use a smart speaker to exit the computer</t>
         </is>
       </c>
       <c r="B362" t="n">
@@ -4058,7 +4058,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>turn off the guitar</t>
+          <t>exit the music</t>
         </is>
       </c>
       <c r="B363" t="n">
@@ -4068,7 +4068,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Customize a button to exit the guitar</t>
+          <t>Use a smart speaker to turn off the walkman</t>
         </is>
       </c>
       <c r="B364" t="n">
@@ -4078,7 +4078,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>Configure settings to automatically turn off the music</t>
+          <t>Use a smart speaker to exit the mp3</t>
         </is>
       </c>
       <c r="B365" t="n">
@@ -4088,7 +4088,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>Use a smart speaker to close the walkman</t>
+          <t>Configure settings to automatically pause the music</t>
         </is>
       </c>
       <c r="B366" t="n">
@@ -4098,7 +4098,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>Customize a button to stop the guitar</t>
+          <t>pause the music</t>
         </is>
       </c>
       <c r="B367" t="n">
@@ -4108,7 +4108,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>Customize a button to turn off the guitar</t>
+          <t>close the phone</t>
         </is>
       </c>
       <c r="B368" t="n">
@@ -4118,7 +4118,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Set a timer to turn off the microphone</t>
+          <t>hit the stop button</t>
         </is>
       </c>
       <c r="B369" t="n">
@@ -4128,7 +4128,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>Use a smart speaker to stop the music</t>
+          <t>Configure settings to automatically pause the earphone</t>
         </is>
       </c>
       <c r="B370" t="n">
@@ -4138,7 +4138,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>Set a timer to turn off the microphone</t>
+          <t>hit the turn off button</t>
         </is>
       </c>
       <c r="B371" t="n">
@@ -4148,7 +4148,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>turn off the phone</t>
+          <t>hit the turn off button</t>
         </is>
       </c>
       <c r="B372" t="n">
@@ -4158,7 +4158,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>Customize a button to turn off the guitar</t>
+          <t>turn off the walkman</t>
         </is>
       </c>
       <c r="B373" t="n">
@@ -4168,7 +4168,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Use a smart speaker to stop the microphone</t>
+          <t>hit the turn off button</t>
         </is>
       </c>
       <c r="B374" t="n">
@@ -4178,7 +4178,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>Customize a button to exit the mp3</t>
+          <t>stop the phone</t>
         </is>
       </c>
       <c r="B375" t="n">
@@ -4188,7 +4188,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>Customize a button to turn off the walkman</t>
+          <t>exit the walkman</t>
         </is>
       </c>
       <c r="B376" t="n">
@@ -4198,7 +4198,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>close the music</t>
+          <t>stop the phone</t>
         </is>
       </c>
       <c r="B377" t="n">
@@ -4208,7 +4208,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>Set a timer to stop the microphone</t>
+          <t>pause the phone</t>
         </is>
       </c>
       <c r="B378" t="n">
@@ -4218,7 +4218,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>exit the mp3</t>
+          <t>Use a smart speaker to exit the mp3</t>
         </is>
       </c>
       <c r="B379" t="n">
@@ -4228,7 +4228,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>Configure settings to automatically exit the music</t>
+          <t>Configure settings to automatically pause the walkman</t>
         </is>
       </c>
       <c r="B380" t="n">
@@ -4238,7 +4238,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>Customize a button to stop the mp3</t>
+          <t>Use a smart speaker to pause the guitar</t>
         </is>
       </c>
       <c r="B381" t="n">
@@ -4248,7 +4248,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>Configure settings to automatically turn off the computer</t>
+          <t>Use a smart speaker to pause the phone</t>
         </is>
       </c>
       <c r="B382" t="n">
@@ -4258,7 +4258,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>Configure settings to automatically close the walkman</t>
+          <t>stop the earphone</t>
         </is>
       </c>
       <c r="B383" t="n">
@@ -4268,7 +4268,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Configure settings to automatically stop the music</t>
+          <t>Use a smart speaker to turn off the computer</t>
         </is>
       </c>
       <c r="B384" t="n">
@@ -4278,7 +4278,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>Customize a button to close the computer</t>
+          <t>Use a smart speaker to pause the phone</t>
         </is>
       </c>
       <c r="B385" t="n">
@@ -4288,7 +4288,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>Use a smart speaker to pause the microphone</t>
+          <t>Configure settings to automatically pause the computer</t>
         </is>
       </c>
       <c r="B386" t="n">
@@ -4298,7 +4298,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>Customize a button to exit the computer</t>
+          <t>Use a smart speaker to pause the mp3</t>
         </is>
       </c>
       <c r="B387" t="n">
@@ -4308,7 +4308,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>Customize a button to pause the guitar</t>
+          <t>pause the music</t>
         </is>
       </c>
       <c r="B388" t="n">
@@ -4318,7 +4318,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Configure settings to automatically exit the phone</t>
+          <t>hit the close button</t>
         </is>
       </c>
       <c r="B389" t="n">
@@ -4328,7 +4328,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>Configure settings to automatically pause the guitar</t>
+          <t>stop the microphone</t>
         </is>
       </c>
       <c r="B390" t="n">
@@ -4338,7 +4338,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>Customize a button to turn off the music</t>
+          <t>stop the earphone</t>
         </is>
       </c>
       <c r="B391" t="n">
@@ -4348,7 +4348,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>Use a smart speaker to exit the music</t>
+          <t>close the earphone</t>
         </is>
       </c>
       <c r="B392" t="n">
@@ -4358,7 +4358,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>Customize a button to turn off the walkman</t>
+          <t>Use a smart speaker to stop the music</t>
         </is>
       </c>
       <c r="B393" t="n">
@@ -4368,7 +4368,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Customize a button to stop the walkman</t>
+          <t>Use a smart speaker to pause the earphone</t>
         </is>
       </c>
       <c r="B394" t="n">
@@ -4378,7 +4378,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>Use a smart speaker to close the guitar</t>
+          <t>Use a smart speaker to stop the computer</t>
         </is>
       </c>
       <c r="B395" t="n">
@@ -4388,7 +4388,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>Customize a button to pause the music</t>
+          <t>stop the mp3</t>
         </is>
       </c>
       <c r="B396" t="n">
@@ -4398,7 +4398,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>Customize a button to turn off the phone</t>
+          <t>pause the walkman</t>
         </is>
       </c>
       <c r="B397" t="n">
@@ -4408,7 +4408,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>stop the earphone</t>
+          <t>Use a smart speaker to pause the music</t>
         </is>
       </c>
       <c r="B398" t="n">
@@ -4418,7 +4418,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>Customize a button to stop the mp3</t>
+          <t>Use a smart speaker to turn off the computer</t>
         </is>
       </c>
       <c r="B399" t="n">
@@ -4428,7 +4428,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>Use a smart speaker to stop the walkman</t>
+          <t>Configure settings to automatically pause the walkman</t>
         </is>
       </c>
       <c r="B400" t="n">
@@ -4438,7 +4438,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>Customize a button to stop the earphone</t>
+          <t>Use a smart speaker to stop the mp3</t>
         </is>
       </c>
       <c r="B401" t="n">
@@ -4448,7 +4448,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>pause the computer</t>
+          <t>close the microphone</t>
         </is>
       </c>
       <c r="B402" t="n">
@@ -4458,7 +4458,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>Use a smart speaker to stop the guitar</t>
+          <t>pause the computer</t>
         </is>
       </c>
       <c r="B403" t="n">
@@ -4468,7 +4468,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Set a timer to pause the mp3</t>
+          <t>turn off the guitar</t>
         </is>
       </c>
       <c r="B404" t="n">
@@ -4478,7 +4478,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>Configure settings to automatically close the guitar</t>
+          <t>Use a smart speaker to close the earphone</t>
         </is>
       </c>
       <c r="B405" t="n">
@@ -4488,7 +4488,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>Customize a button to turn off the microphone</t>
+          <t>Use a smart speaker to close the earphone</t>
         </is>
       </c>
       <c r="B406" t="n">
@@ -4498,7 +4498,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>Configure settings to automatically close the guitar</t>
+          <t>stop the music</t>
         </is>
       </c>
       <c r="B407" t="n">
@@ -4508,7 +4508,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>exit the mp3</t>
+          <t>close the phone</t>
         </is>
       </c>
       <c r="B408" t="n">
@@ -4518,7 +4518,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>Customize a button to close the walkman</t>
+          <t>Use a smart speaker to pause the phone</t>
         </is>
       </c>
       <c r="B409" t="n">
@@ -4528,7 +4528,7 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>Customize a button to stop the walkman</t>
+          <t>stop the computer</t>
         </is>
       </c>
       <c r="B410" t="n">
@@ -4538,7 +4538,7 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>stop the computer</t>
+          <t>pause the guitar</t>
         </is>
       </c>
       <c r="B411" t="n">
@@ -4548,7 +4548,7 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>Configure settings to automatically pause the walkman</t>
+          <t>Use a smart speaker to pause the computer</t>
         </is>
       </c>
       <c r="B412" t="n">
@@ -4558,7 +4558,7 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>Use a smart speaker to exit the walkman</t>
+          <t>hit the turn off button</t>
         </is>
       </c>
       <c r="B413" t="n">
@@ -4568,7 +4568,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>stop the guitar</t>
+          <t>Configure settings to automatically pause the music</t>
         </is>
       </c>
       <c r="B414" t="n">
@@ -4578,7 +4578,7 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>Set a timer to stop the mp3</t>
+          <t>Use a smart speaker to turn off the guitar</t>
         </is>
       </c>
       <c r="B415" t="n">
@@ -4588,7 +4588,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>Customize a button to stop the guitar</t>
+          <t>Use a smart speaker to stop the mp3</t>
         </is>
       </c>
       <c r="B416" t="n">
@@ -4598,7 +4598,7 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>exit the guitar</t>
+          <t>exit the music</t>
         </is>
       </c>
       <c r="B417" t="n">
@@ -4608,7 +4608,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>hit the close button</t>
+          <t>Use a smart speaker to pause the walkman</t>
         </is>
       </c>
       <c r="B418" t="n">
@@ -4618,7 +4618,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>Set a timer to close the phone</t>
+          <t>turn off the mp3</t>
         </is>
       </c>
       <c r="B419" t="n">
@@ -4628,7 +4628,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>Use a smart speaker to exit the earphone</t>
+          <t>Configure settings to automatically pause the phone</t>
         </is>
       </c>
       <c r="B420" t="n">
@@ -4638,7 +4638,7 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>hit the close button</t>
+          <t>Configure settings to automatically stop the microphone</t>
         </is>
       </c>
       <c r="B421" t="n">
@@ -4648,7 +4648,7 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>Use a smart speaker to stop the guitar</t>
+          <t>turn off the computer</t>
         </is>
       </c>
       <c r="B422" t="n">
@@ -4658,7 +4658,7 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>Set a timer to close the music</t>
+          <t>stop the phone</t>
         </is>
       </c>
       <c r="B423" t="n">
@@ -4668,7 +4668,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>Set a timer to turn off the microphone</t>
+          <t>stop the microphone</t>
         </is>
       </c>
       <c r="B424" t="n">
@@ -4678,7 +4678,7 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>Configure settings to automatically exit the microphone</t>
+          <t>Configure settings to automatically pause the earphone</t>
         </is>
       </c>
       <c r="B425" t="n">
@@ -4688,7 +4688,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>Configure settings to automatically pause the earphone</t>
+          <t>stop the mp3</t>
         </is>
       </c>
       <c r="B426" t="n">
@@ -4698,7 +4698,7 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>stop the walkman</t>
+          <t>Use a smart speaker to exit the earphone</t>
         </is>
       </c>
       <c r="B427" t="n">
@@ -4708,7 +4708,7 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>close the earphone</t>
+          <t>pause the music</t>
         </is>
       </c>
       <c r="B428" t="n">
@@ -4718,7 +4718,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>exit the phone</t>
+          <t>stop the computer</t>
         </is>
       </c>
       <c r="B429" t="n">
@@ -4728,7 +4728,7 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>Configure settings to automatically exit the mp3</t>
+          <t>pause the microphone</t>
         </is>
       </c>
       <c r="B430" t="n">
@@ -4738,7 +4738,7 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>Set a timer to close the computer</t>
+          <t>Use a smart speaker to stop the music</t>
         </is>
       </c>
       <c r="B431" t="n">
@@ -4748,7 +4748,7 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>Configure settings to automatically stop the earphone</t>
+          <t>pause the microphone</t>
         </is>
       </c>
       <c r="B432" t="n">
@@ -4758,7 +4758,7 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>hit the pause button</t>
+          <t>Use a smart speaker to turn off the earphone</t>
         </is>
       </c>
       <c r="B433" t="n">
@@ -4768,7 +4768,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>Set a timer to turn off the music</t>
+          <t>Use a smart speaker to turn off the microphone</t>
         </is>
       </c>
       <c r="B434" t="n">
@@ -4778,7 +4778,7 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>exit the walkman</t>
+          <t>Use a smart speaker to exit the phone</t>
         </is>
       </c>
       <c r="B435" t="n">
@@ -4788,7 +4788,7 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>Use a smart speaker to exit the microphone</t>
+          <t>Use a smart speaker to close the earphone</t>
         </is>
       </c>
       <c r="B436" t="n">
@@ -4798,7 +4798,7 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>Use a smart speaker to stop the guitar</t>
+          <t>stop the phone</t>
         </is>
       </c>
       <c r="B437" t="n">
@@ -4808,7 +4808,7 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>Set a timer to exit the microphone</t>
+          <t>Use a smart speaker to exit the guitar</t>
         </is>
       </c>
       <c r="B438" t="n">
@@ -4818,7 +4818,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>Use a smart speaker to pause the computer</t>
+          <t>turn off the walkman</t>
         </is>
       </c>
       <c r="B439" t="n">
@@ -4828,7 +4828,7 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>Use a smart speaker to pause the phone</t>
+          <t>Use a smart speaker to close the microphone</t>
         </is>
       </c>
       <c r="B440" t="n">
@@ -4838,7 +4838,7 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>exit the music</t>
+          <t>turn off the walkman</t>
         </is>
       </c>
       <c r="B441" t="n">
@@ -4848,7 +4848,7 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>Use a smart speaker to turn off the mp3</t>
+          <t>stop the guitar</t>
         </is>
       </c>
       <c r="B442" t="n">
@@ -4858,7 +4858,7 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>turn off the computer</t>
+          <t>exit the guitar</t>
         </is>
       </c>
       <c r="B443" t="n">
@@ -4868,7 +4868,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>Customize a button to exit the music</t>
+          <t>hit the stop button</t>
         </is>
       </c>
       <c r="B444" t="n">
@@ -4878,7 +4878,7 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>hit the stop button</t>
+          <t>Use a smart speaker to exit the earphone</t>
         </is>
       </c>
       <c r="B445" t="n">
@@ -4888,7 +4888,7 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>Use a smart speaker to pause the phone</t>
+          <t>Use a smart speaker to close the computer</t>
         </is>
       </c>
       <c r="B446" t="n">
@@ -4898,7 +4898,7 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>Use a smart speaker to turn off the computer</t>
+          <t>hit the turn off button</t>
         </is>
       </c>
       <c r="B447" t="n">
@@ -4908,7 +4908,7 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>Customize a button to pause the music</t>
+          <t>Use a smart speaker to close the walkman</t>
         </is>
       </c>
       <c r="B448" t="n">
@@ -4918,7 +4918,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>stop the computer</t>
+          <t>close the earphone</t>
         </is>
       </c>
       <c r="B449" t="n">
@@ -4928,7 +4928,7 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>Configure settings to automatically close the phone</t>
+          <t>Use a smart speaker to turn off the computer</t>
         </is>
       </c>
       <c r="B450" t="n">
@@ -4938,7 +4938,7 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>Customize a button to turn off the microphone</t>
+          <t>Use a smart speaker to close the mp3</t>
         </is>
       </c>
       <c r="B451" t="n">
@@ -4948,7 +4948,7 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>Customize a button to close the walkman</t>
+          <t>exit the music</t>
         </is>
       </c>
       <c r="B452" t="n">
@@ -4958,7 +4958,7 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>Use a smart speaker to turn off the computer</t>
+          <t>hit the turn off button</t>
         </is>
       </c>
       <c r="B453" t="n">
@@ -4968,7 +4968,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>Configure settings to automatically close the guitar</t>
+          <t>Configure settings to automatically pause the mp3</t>
         </is>
       </c>
       <c r="B454" t="n">
@@ -4978,7 +4978,7 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>Use a smart speaker to close the guitar</t>
+          <t>stop the earphone</t>
         </is>
       </c>
       <c r="B455" t="n">
@@ -4988,7 +4988,7 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>Customize a button to exit the guitar</t>
+          <t>close the earphone</t>
         </is>
       </c>
       <c r="B456" t="n">
@@ -4998,7 +4998,7 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>Set a timer to turn off the mp3</t>
+          <t>exit the phone</t>
         </is>
       </c>
       <c r="B457" t="n">
@@ -5008,7 +5008,7 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>Set a timer to stop the music</t>
+          <t>Use a smart speaker to close the music</t>
         </is>
       </c>
       <c r="B458" t="n">
@@ -5018,7 +5018,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>Customize a button to stop the music</t>
+          <t>Use a smart speaker to stop the mp3</t>
         </is>
       </c>
       <c r="B459" t="n">
@@ -5028,7 +5028,7 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>turn off the earphone</t>
+          <t>Configure settings to automatically stop the computer</t>
         </is>
       </c>
       <c r="B460" t="n">
@@ -5038,7 +5038,7 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>Use a smart speaker to pause the earphone</t>
+          <t>Use a smart speaker to exit the walkman</t>
         </is>
       </c>
       <c r="B461" t="n">
@@ -5048,7 +5048,7 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>Customize a button to stop the music</t>
+          <t>Use a smart speaker to close the guitar</t>
         </is>
       </c>
       <c r="B462" t="n">
@@ -5058,7 +5058,7 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>Customize a button to close the walkman</t>
+          <t>stop the phone</t>
         </is>
       </c>
       <c r="B463" t="n">
@@ -5068,7 +5068,7 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>Use a smart speaker to exit the mp3</t>
+          <t>close the walkman</t>
         </is>
       </c>
       <c r="B464" t="n">
@@ -5078,7 +5078,7 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>pause the computer</t>
+          <t>exit the microphone</t>
         </is>
       </c>
       <c r="B465" t="n">
@@ -5088,7 +5088,7 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>Customize a button to stop the computer</t>
+          <t>exit the music</t>
         </is>
       </c>
       <c r="B466" t="n">
@@ -5098,7 +5098,7 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>exit the mp3</t>
+          <t>pause the phone</t>
         </is>
       </c>
       <c r="B467" t="n">
@@ -5108,7 +5108,7 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>Customize a button to pause the phone</t>
+          <t>turn off the microphone</t>
         </is>
       </c>
       <c r="B468" t="n">
@@ -5118,7 +5118,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>Customize a button to close the walkman</t>
+          <t>Use a smart speaker to exit the microphone</t>
         </is>
       </c>
       <c r="B469" t="n">
@@ -5128,7 +5128,7 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>Configure settings to automatically pause the computer</t>
+          <t>Configure settings to automatically pause the phone</t>
         </is>
       </c>
       <c r="B470" t="n">
@@ -5138,7 +5138,7 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>stop the mp3</t>
+          <t>Use a smart speaker to close the microphone</t>
         </is>
       </c>
       <c r="B471" t="n">
@@ -5148,7 +5148,7 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>Set a timer to close the computer</t>
+          <t>turn off the computer</t>
         </is>
       </c>
       <c r="B472" t="n">
@@ -5158,7 +5158,7 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>Use a smart speaker to stop the walkman</t>
+          <t>stop the walkman</t>
         </is>
       </c>
       <c r="B473" t="n">
@@ -5168,7 +5168,7 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>Use a smart speaker to pause the walkman</t>
+          <t>Configure settings to automatically pause the phone</t>
         </is>
       </c>
       <c r="B474" t="n">
@@ -5178,7 +5178,7 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>Set a timer to close the phone</t>
+          <t>Configure settings to automatically stop the mp3</t>
         </is>
       </c>
       <c r="B475" t="n">
@@ -5188,7 +5188,7 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>Set a timer to close the guitar</t>
+          <t>Configure settings to automatically stop the walkman</t>
         </is>
       </c>
       <c r="B476" t="n">
@@ -5198,7 +5198,7 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>Use a smart speaker to turn off the guitar</t>
+          <t>Configure settings to automatically pause the computer</t>
         </is>
       </c>
       <c r="B477" t="n">
@@ -5208,7 +5208,7 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>Customize a button to close the microphone</t>
+          <t>Use a smart speaker to exit the phone</t>
         </is>
       </c>
       <c r="B478" t="n">
@@ -5218,7 +5218,7 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>close the mp3</t>
+          <t>stop the earphone</t>
         </is>
       </c>
       <c r="B479" t="n">
@@ -5228,7 +5228,7 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>Configure settings to automatically stop the mp3</t>
+          <t>stop the microphone</t>
         </is>
       </c>
       <c r="B480" t="n">
@@ -5238,7 +5238,7 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>Customize a button to exit the earphone</t>
+          <t>Configure settings to automatically stop the guitar</t>
         </is>
       </c>
       <c r="B481" t="n">
@@ -5248,7 +5248,7 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>Set a timer to close the microphone</t>
+          <t>pause the walkman</t>
         </is>
       </c>
       <c r="B482" t="n">
@@ -5258,7 +5258,7 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>Set a timer to turn off the guitar</t>
+          <t>stop the music</t>
         </is>
       </c>
       <c r="B483" t="n">
@@ -5268,7 +5268,7 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>Use a smart speaker to pause the computer</t>
+          <t>stop the guitar</t>
         </is>
       </c>
       <c r="B484" t="n">
@@ -5278,7 +5278,7 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>close the earphone</t>
+          <t>Use a smart speaker to pause the microphone</t>
         </is>
       </c>
       <c r="B485" t="n">
@@ -5288,7 +5288,7 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>Use a smart speaker to exit the mp3</t>
+          <t>Use a smart speaker to close the walkman</t>
         </is>
       </c>
       <c r="B486" t="n">
@@ -5298,7 +5298,7 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>Set a timer to exit the microphone</t>
+          <t>pause the phone</t>
         </is>
       </c>
       <c r="B487" t="n">
@@ -5308,7 +5308,7 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>Customize a button to pause the music</t>
+          <t>pause the phone</t>
         </is>
       </c>
       <c r="B488" t="n">
@@ -5318,7 +5318,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>Use a smart speaker to turn off the mp3</t>
+          <t>Use a smart speaker to exit the guitar</t>
         </is>
       </c>
       <c r="B489" t="n">
@@ -5328,7 +5328,7 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>Set a timer to stop the computer</t>
+          <t>Use a smart speaker to exit the walkman</t>
         </is>
       </c>
       <c r="B490" t="n">
@@ -5338,7 +5338,7 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>Customize a button to stop the phone</t>
+          <t>Use a smart speaker to exit the guitar</t>
         </is>
       </c>
       <c r="B491" t="n">
@@ -5348,7 +5348,7 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>Set a timer to pause the microphone</t>
+          <t>Use a smart speaker to turn off the music</t>
         </is>
       </c>
       <c r="B492" t="n">
@@ -5358,7 +5358,7 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>hit the pause button</t>
+          <t>stop the microphone</t>
         </is>
       </c>
       <c r="B493" t="n">
@@ -5368,7 +5368,7 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>Customize a button to exit the music</t>
+          <t>pause the music</t>
         </is>
       </c>
       <c r="B494" t="n">
@@ -5378,7 +5378,7 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>Set a timer to close the computer</t>
+          <t>Use a smart speaker to pause the phone</t>
         </is>
       </c>
       <c r="B495" t="n">
@@ -5388,7 +5388,7 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>Use a smart speaker to exit the earphone</t>
+          <t>Use a smart speaker to stop the microphone</t>
         </is>
       </c>
       <c r="B496" t="n">
@@ -5398,7 +5398,7 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>Use a smart speaker to pause the guitar</t>
+          <t>Use a smart speaker to close the guitar</t>
         </is>
       </c>
       <c r="B497" t="n">
@@ -5408,7 +5408,7 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>Use a smart speaker to pause the computer</t>
+          <t>turn off the earphone</t>
         </is>
       </c>
       <c r="B498" t="n">
@@ -5418,7 +5418,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>Configure settings to automatically exit the walkman</t>
+          <t>exit the phone</t>
         </is>
       </c>
       <c r="B499" t="n">
@@ -5428,7 +5428,7 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>close the mp3</t>
+          <t>Use a smart speaker to stop the mp3</t>
         </is>
       </c>
       <c r="B500" t="n">
@@ -5438,7 +5438,7 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>Customize a button to stop the computer</t>
+          <t>stop the earphone</t>
         </is>
       </c>
       <c r="B501" t="n">
@@ -5448,7 +5448,7 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>pause the guitar</t>
+          <t>Use a smart speaker to exit the phone</t>
         </is>
       </c>
       <c r="B502" t="n">
@@ -5458,7 +5458,7 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>Use a smart speaker to close the phone</t>
+          <t>stop the music</t>
         </is>
       </c>
       <c r="B503" t="n">
@@ -5468,7 +5468,7 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>Customize a button to turn off the mp3</t>
+          <t>Use a smart speaker to pause the walkman</t>
         </is>
       </c>
       <c r="B504" t="n">
@@ -5478,7 +5478,7 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>Set a timer to turn off the walkman</t>
+          <t>Use a smart speaker to close the phone</t>
         </is>
       </c>
       <c r="B505" t="n">
@@ -5488,7 +5488,7 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>Set a timer to turn off the phone</t>
+          <t>Use a smart speaker to exit the earphone</t>
         </is>
       </c>
       <c r="B506" t="n">
@@ -5498,7 +5498,7 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>Customize a button to pause the microphone</t>
+          <t>pause the microphone</t>
         </is>
       </c>
       <c r="B507" t="n">
@@ -5508,7 +5508,7 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>Set a timer to exit the microphone</t>
+          <t>Use a smart speaker to exit the walkman</t>
         </is>
       </c>
       <c r="B508" t="n">
@@ -5518,7 +5518,7 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>Use a smart speaker to close the computer</t>
+          <t>Use a smart speaker to stop the microphone</t>
         </is>
       </c>
       <c r="B509" t="n">
@@ -5528,7 +5528,7 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>Customize a button to turn off the earphone</t>
+          <t>Use a smart speaker to turn off the music</t>
         </is>
       </c>
       <c r="B510" t="n">
@@ -5538,7 +5538,7 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>Configure settings to automatically stop the walkman</t>
+          <t>Use a smart speaker to pause the phone</t>
         </is>
       </c>
       <c r="B511" t="n">
@@ -5548,7 +5548,7 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>Set a timer to close the walkman</t>
+          <t>pause the phone</t>
         </is>
       </c>
       <c r="B512" t="n">
@@ -5558,7 +5558,7 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>Configure settings to automatically exit the microphone</t>
+          <t>Use a smart speaker to stop the earphone</t>
         </is>
       </c>
       <c r="B513" t="n">
@@ -5568,7 +5568,7 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>pause the guitar</t>
+          <t>Configure settings to automatically stop the guitar</t>
         </is>
       </c>
       <c r="B514" t="n">
@@ -5578,7 +5578,7 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>Configure settings to automatically turn off the mp3</t>
+          <t>Configure settings to automatically pause the music</t>
         </is>
       </c>
       <c r="B515" t="n">
@@ -5588,7 +5588,7 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>Set a timer to close the microphone</t>
+          <t>stop the walkman</t>
         </is>
       </c>
       <c r="B516" t="n">
@@ -5598,7 +5598,7 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>Customize a button to pause the microphone</t>
+          <t>Use a smart speaker to stop the microphone</t>
         </is>
       </c>
       <c r="B517" t="n">
@@ -5608,7 +5608,7 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>Use a smart speaker to stop the mp3</t>
+          <t>Use a smart speaker to turn off the phone</t>
         </is>
       </c>
       <c r="B518" t="n">
@@ -5618,7 +5618,7 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>Use a smart speaker to stop the mp3</t>
+          <t>close the phone</t>
         </is>
       </c>
       <c r="B519" t="n">
@@ -5628,7 +5628,7 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>exit the phone</t>
+          <t>Use a smart speaker to close the earphone</t>
         </is>
       </c>
       <c r="B520" t="n">
@@ -5638,7 +5638,7 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>hit the exit button</t>
+          <t>Use a smart speaker to pause the computer</t>
         </is>
       </c>
       <c r="B521" t="n">
@@ -5648,7 +5648,7 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>Use a smart speaker to turn off the walkman</t>
+          <t>Use a smart speaker to pause the microphone</t>
         </is>
       </c>
       <c r="B522" t="n">
@@ -5658,7 +5658,7 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>close the phone</t>
+          <t>Use a smart speaker to close the guitar</t>
         </is>
       </c>
       <c r="B523" t="n">
@@ -5668,7 +5668,7 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>Use a smart speaker to exit the computer</t>
+          <t>turn off the guitar</t>
         </is>
       </c>
       <c r="B524" t="n">
@@ -5678,7 +5678,7 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>pause the earphone</t>
+          <t>exit the guitar</t>
         </is>
       </c>
       <c r="B525" t="n">
@@ -5688,7 +5688,7 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>Customize a button to turn off the guitar</t>
+          <t>exit the microphone</t>
         </is>
       </c>
       <c r="B526" t="n">
@@ -5698,7 +5698,7 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>stop the music</t>
+          <t>Use a smart speaker to turn off the music</t>
         </is>
       </c>
       <c r="B527" t="n">
@@ -5708,7 +5708,7 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>Set a timer to stop the computer</t>
+          <t>Use a smart speaker to stop the computer</t>
         </is>
       </c>
       <c r="B528" t="n">
@@ -5718,7 +5718,7 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>Configure settings to automatically turn off the guitar</t>
+          <t>Use a smart speaker to stop the computer</t>
         </is>
       </c>
       <c r="B529" t="n">
@@ -5728,7 +5728,7 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>Set a timer to stop the mp3</t>
+          <t>exit the earphone</t>
         </is>
       </c>
       <c r="B530" t="n">
@@ -5738,7 +5738,7 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>Configure settings to automatically close the music</t>
+          <t>Use a smart speaker to pause the mp3</t>
         </is>
       </c>
       <c r="B531" t="n">
@@ -5748,7 +5748,7 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>Use a smart speaker to turn off the computer</t>
+          <t>Use a smart speaker to exit the walkman</t>
         </is>
       </c>
       <c r="B532" t="n">
@@ -5758,7 +5758,7 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>Use a smart speaker to exit the guitar</t>
+          <t>exit the music</t>
         </is>
       </c>
       <c r="B533" t="n">
@@ -5768,7 +5768,7 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>Configure settings to automatically exit the walkman</t>
+          <t>exit the earphone</t>
         </is>
       </c>
       <c r="B534" t="n">
@@ -5778,7 +5778,7 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>Customize a button to pause the guitar</t>
+          <t>Use a smart speaker to turn off the phone</t>
         </is>
       </c>
       <c r="B535" t="n">
@@ -5788,7 +5788,7 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>Customize a button to turn off the microphone</t>
+          <t>stop the mp3</t>
         </is>
       </c>
       <c r="B536" t="n">
@@ -5798,7 +5798,7 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>Set a timer to turn off the music</t>
+          <t>Use a smart speaker to stop the music</t>
         </is>
       </c>
       <c r="B537" t="n">
@@ -5808,7 +5808,7 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>Customize a button to turn off the microphone</t>
+          <t>Configure settings to automatically pause the music</t>
         </is>
       </c>
       <c r="B538" t="n">
@@ -5818,7 +5818,7 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>Set a timer to close the computer</t>
+          <t>turn off the music</t>
         </is>
       </c>
       <c r="B539" t="n">
@@ -5828,7 +5828,7 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>Configure settings to automatically turn off the guitar</t>
+          <t>exit the earphone</t>
         </is>
       </c>
       <c r="B540" t="n">
@@ -5838,7 +5838,7 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>Configure settings to automatically close the mp3</t>
+          <t>stop the guitar</t>
         </is>
       </c>
       <c r="B541" t="n">
@@ -5848,7 +5848,7 @@
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>Use a smart speaker to stop the guitar</t>
+          <t>pause the computer</t>
         </is>
       </c>
       <c r="B542" t="n">
@@ -5858,7 +5858,7 @@
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>exit the computer</t>
+          <t>Use a smart speaker to close the walkman</t>
         </is>
       </c>
       <c r="B543" t="n">
@@ -5868,7 +5868,7 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>Configure settings to automatically stop the earphone</t>
+          <t>exit the phone</t>
         </is>
       </c>
       <c r="B544" t="n">
@@ -5878,7 +5878,7 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>Use a smart speaker to exit the phone</t>
+          <t>Use a smart speaker to close the phone</t>
         </is>
       </c>
       <c r="B545" t="n">
@@ -5888,7 +5888,7 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>Customize a button to stop the walkman</t>
+          <t>turn off the earphone</t>
         </is>
       </c>
       <c r="B546" t="n">
@@ -5898,7 +5898,7 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>Customize a button to stop the computer</t>
+          <t>close the guitar</t>
         </is>
       </c>
       <c r="B547" t="n">
@@ -5908,7 +5908,7 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>Customize a button to exit the earphone</t>
+          <t>Use a smart speaker to turn off the music</t>
         </is>
       </c>
       <c r="B548" t="n">
@@ -5918,7 +5918,7 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>stop the walkman</t>
+          <t>Use a smart speaker to stop the guitar</t>
         </is>
       </c>
       <c r="B549" t="n">
@@ -5928,7 +5928,7 @@
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>Customize a button to stop the earphone</t>
+          <t>Configure settings to automatically pause the guitar</t>
         </is>
       </c>
       <c r="B550" t="n">
@@ -5938,7 +5938,7 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>close the guitar</t>
+          <t>Configure settings to automatically stop the walkman</t>
         </is>
       </c>
       <c r="B551" t="n">
@@ -5948,7 +5948,7 @@
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>Customize a button to close the guitar</t>
+          <t>exit the microphone</t>
         </is>
       </c>
       <c r="B552" t="n">
@@ -5958,7 +5958,7 @@
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>Use a smart speaker to close the earphone</t>
+          <t>Use a smart speaker to pause the mp3</t>
         </is>
       </c>
       <c r="B553" t="n">
@@ -5968,7 +5968,7 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>Customize a button to pause the music</t>
+          <t>Use a smart speaker to turn off the guitar</t>
         </is>
       </c>
       <c r="B554" t="n">
@@ -5978,7 +5978,7 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>Customize a button to close the microphone</t>
+          <t>Configure settings to automatically pause the earphone</t>
         </is>
       </c>
       <c r="B555" t="n">
@@ -5988,7 +5988,7 @@
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>Configure settings to automatically close the music</t>
+          <t>Use a smart speaker to pause the microphone</t>
         </is>
       </c>
       <c r="B556" t="n">
@@ -5998,7 +5998,7 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>Set a timer to turn off the music</t>
+          <t>Use a smart speaker to pause the mp3</t>
         </is>
       </c>
       <c r="B557" t="n">
@@ -6008,7 +6008,7 @@
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>Configure settings to automatically pause the earphone</t>
+          <t>stop the mp3</t>
         </is>
       </c>
       <c r="B558" t="n">
@@ -6018,7 +6018,7 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>pause the music</t>
+          <t>exit the walkman</t>
         </is>
       </c>
       <c r="B559" t="n">
@@ -6028,7 +6028,7 @@
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>Use a smart speaker to pause the phone</t>
+          <t>Use a smart speaker to stop the walkman</t>
         </is>
       </c>
       <c r="B560" t="n">
@@ -6038,7 +6038,7 @@
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>turn off the walkman</t>
+          <t>Use a smart speaker to stop the guitar</t>
         </is>
       </c>
       <c r="B561" t="n">
@@ -6048,7 +6048,7 @@
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>Use a smart speaker to close the music</t>
+          <t>Use a smart speaker to stop the computer</t>
         </is>
       </c>
       <c r="B562" t="n">
@@ -6058,7 +6058,7 @@
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>Configure settings to automatically pause the walkman</t>
+          <t>close the computer</t>
         </is>
       </c>
       <c r="B563" t="n">
@@ -6068,7 +6068,7 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>Set a timer to pause the earphone</t>
+          <t>turn off the guitar</t>
         </is>
       </c>
       <c r="B564" t="n">
@@ -6078,7 +6078,7 @@
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>Use a smart speaker to stop the mp3</t>
+          <t>Use a smart speaker to pause the walkman</t>
         </is>
       </c>
       <c r="B565" t="n">
@@ -6088,7 +6088,7 @@
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>Use a smart speaker to exit the guitar</t>
+          <t>Use a smart speaker to close the walkman</t>
         </is>
       </c>
       <c r="B566" t="n">
@@ -6098,7 +6098,7 @@
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>Use a smart speaker to exit the microphone</t>
+          <t>pause the walkman</t>
         </is>
       </c>
       <c r="B567" t="n">
@@ -6108,7 +6108,7 @@
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>Configure settings to automatically pause the walkman</t>
+          <t>Use a smart speaker to exit the computer</t>
         </is>
       </c>
       <c r="B568" t="n">
@@ -6118,7 +6118,7 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>close the guitar</t>
+          <t>close the walkman</t>
         </is>
       </c>
       <c r="B569" t="n">
@@ -6128,7 +6128,7 @@
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>exit the phone</t>
+          <t>Use a smart speaker to turn off the mp3</t>
         </is>
       </c>
       <c r="B570" t="n">
@@ -6138,7 +6138,7 @@
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>Customize a button to stop the mp3</t>
+          <t>stop the mp3</t>
         </is>
       </c>
       <c r="B571" t="n">
@@ -6148,7 +6148,7 @@
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>Customize a button to exit the mp3</t>
+          <t>stop the computer</t>
         </is>
       </c>
       <c r="B572" t="n">
@@ -6158,7 +6158,7 @@
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>Customize a button to pause the walkman</t>
+          <t>Use a smart speaker to close the walkman</t>
         </is>
       </c>
       <c r="B573" t="n">
@@ -6168,7 +6168,7 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>Set a timer to turn off the microphone</t>
+          <t>Configure settings to automatically stop the earphone</t>
         </is>
       </c>
       <c r="B574" t="n">
@@ -6178,7 +6178,7 @@
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>Customize a button to turn off the phone</t>
+          <t>Use a smart speaker to stop the walkman</t>
         </is>
       </c>
       <c r="B575" t="n">
@@ -6188,7 +6188,7 @@
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>Set a timer to close the earphone</t>
+          <t>Use a smart speaker to turn off the computer</t>
         </is>
       </c>
       <c r="B576" t="n">
@@ -6198,7 +6198,7 @@
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>Customize a button to close the earphone</t>
+          <t>turn off the music</t>
         </is>
       </c>
       <c r="B577" t="n">
@@ -6208,7 +6208,7 @@
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>Customize a button to pause the walkman</t>
+          <t>turn off the microphone</t>
         </is>
       </c>
       <c r="B578" t="n">
@@ -6218,7 +6218,7 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>Configure settings to automatically stop the computer</t>
+          <t>pause the mp3</t>
         </is>
       </c>
       <c r="B579" t="n">
@@ -6228,7 +6228,7 @@
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>turn off the music</t>
+          <t>stop the microphone</t>
         </is>
       </c>
       <c r="B580" t="n">
@@ -6238,7 +6238,7 @@
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>Use a smart speaker to stop the earphone</t>
+          <t>Use a smart speaker to exit the computer</t>
         </is>
       </c>
       <c r="B581" t="n">
@@ -6248,7 +6248,7 @@
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>Set a timer to close the computer</t>
+          <t>Use a smart speaker to stop the music</t>
         </is>
       </c>
       <c r="B582" t="n">
@@ -6258,7 +6258,7 @@
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>Use a smart speaker to pause the music</t>
+          <t>Use a smart speaker to turn off the microphone</t>
         </is>
       </c>
       <c r="B583" t="n">
@@ -6268,7 +6268,7 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>Set a timer to pause the mp3</t>
+          <t>turn off the phone</t>
         </is>
       </c>
       <c r="B584" t="n">
@@ -6278,7 +6278,7 @@
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>Customize a button to stop the guitar</t>
+          <t>pause the earphone</t>
         </is>
       </c>
       <c r="B585" t="n">
@@ -6288,7 +6288,7 @@
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>turn off the music</t>
+          <t>hit the close button</t>
         </is>
       </c>
       <c r="B586" t="n">
@@ -6298,7 +6298,7 @@
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>Use a smart speaker to close the earphone</t>
+          <t>Use a smart speaker to stop the walkman</t>
         </is>
       </c>
       <c r="B587" t="n">
@@ -6308,7 +6308,7 @@
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>Customize a button to exit the phone</t>
+          <t>close the music</t>
         </is>
       </c>
       <c r="B588" t="n">
@@ -6318,7 +6318,7 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>Customize a button to turn off the microphone</t>
+          <t>turn off the microphone</t>
         </is>
       </c>
       <c r="B589" t="n">
@@ -6328,7 +6328,7 @@
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>Use a smart speaker to pause the computer</t>
+          <t>stop the computer</t>
         </is>
       </c>
       <c r="B590" t="n">
@@ -6338,7 +6338,7 @@
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>Set a timer to turn off the music</t>
+          <t>pause the guitar</t>
         </is>
       </c>
       <c r="B591" t="n">
@@ -6348,7 +6348,7 @@
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>Customize a button to turn off the phone</t>
+          <t>Use a smart speaker to exit the guitar</t>
         </is>
       </c>
       <c r="B592" t="n">
@@ -6358,7 +6358,7 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>Set a timer to close the phone</t>
+          <t>Use a smart speaker to exit the mp3</t>
         </is>
       </c>
       <c r="B593" t="n">
@@ -6378,7 +6378,7 @@
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>Set a timer to stop the guitar</t>
+          <t>Configure settings to automatically stop the mp3</t>
         </is>
       </c>
       <c r="B595" t="n">
@@ -6388,7 +6388,7 @@
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>Use a smart speaker to turn off the mp3</t>
+          <t>close the phone</t>
         </is>
       </c>
       <c r="B596" t="n">
@@ -6398,7 +6398,7 @@
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>Set a timer to stop the music</t>
+          <t>Use a smart speaker to exit the mp3</t>
         </is>
       </c>
       <c r="B597" t="n">
@@ -6408,7 +6408,7 @@
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>Use a smart speaker to turn off the mp3</t>
+          <t>Use a smart speaker to close the guitar</t>
         </is>
       </c>
       <c r="B598" t="n">
@@ -6418,7 +6418,7 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>Customize a button to stop the computer</t>
+          <t>Use a smart speaker to turn off the guitar</t>
         </is>
       </c>
       <c r="B599" t="n">
@@ -6428,7 +6428,7 @@
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>Use a smart speaker to stop the mp3</t>
+          <t>Configure settings to automatically pause the phone</t>
         </is>
       </c>
       <c r="B600" t="n">
@@ -6438,7 +6438,7 @@
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>hit the turn off button</t>
+          <t>close the walkman</t>
         </is>
       </c>
       <c r="B601" t="n">
@@ -6448,7 +6448,7 @@
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>Customize a button to turn off the music</t>
+          <t>exit the earphone</t>
         </is>
       </c>
       <c r="B602" t="n">
@@ -6458,7 +6458,7 @@
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>Customize a button to pause the earphone</t>
+          <t>Configure settings to automatically pause the earphone</t>
         </is>
       </c>
       <c r="B603" t="n">
@@ -6468,7 +6468,7 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>Set a timer to stop the microphone</t>
+          <t>Use a smart speaker to turn off the walkman</t>
         </is>
       </c>
       <c r="B604" t="n">
@@ -6478,7 +6478,7 @@
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>Set a timer to close the walkman</t>
+          <t>Use a smart speaker to close the earphone</t>
         </is>
       </c>
       <c r="B605" t="n">
@@ -6488,7 +6488,7 @@
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>Use a smart speaker to stop the phone</t>
+          <t>Use a smart speaker to exit the computer</t>
         </is>
       </c>
       <c r="B606" t="n">
@@ -6498,7 +6498,7 @@
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>Set a timer to close the earphone</t>
+          <t>Use a smart speaker to pause the computer</t>
         </is>
       </c>
       <c r="B607" t="n">
@@ -6508,7 +6508,7 @@
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>Configure settings to automatically turn off the walkman</t>
+          <t>Use a smart speaker to exit the computer</t>
         </is>
       </c>
       <c r="B608" t="n">
@@ -6518,7 +6518,7 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>Use a smart speaker to turn off the computer</t>
+          <t>stop the guitar</t>
         </is>
       </c>
       <c r="B609" t="n">
@@ -6528,7 +6528,7 @@
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>Customize a button to turn off the computer</t>
+          <t>exit the earphone</t>
         </is>
       </c>
       <c r="B610" t="n">
@@ -6538,7 +6538,7 @@
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>exit the mp3</t>
+          <t>stop the music</t>
         </is>
       </c>
       <c r="B611" t="n">
@@ -6548,7 +6548,7 @@
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>Customize a button to stop the phone</t>
+          <t>Use a smart speaker to close the microphone</t>
         </is>
       </c>
       <c r="B612" t="n">
@@ -6558,7 +6558,7 @@
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>Customize a button to close the phone</t>
+          <t>hit the close button</t>
         </is>
       </c>
       <c r="B613" t="n">
@@ -6568,7 +6568,7 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>stop the phone</t>
+          <t>Use a smart speaker to turn off the mp3</t>
         </is>
       </c>
       <c r="B614" t="n">
@@ -6578,7 +6578,7 @@
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>Use a smart speaker to pause the earphone</t>
+          <t>Use a smart speaker to turn off the music</t>
         </is>
       </c>
       <c r="B615" t="n">
@@ -6588,7 +6588,7 @@
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>close the microphone</t>
+          <t>Use a smart speaker to pause the mp3</t>
         </is>
       </c>
       <c r="B616" t="n">
@@ -6598,7 +6598,7 @@
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>Set a timer to turn off the phone</t>
+          <t>Use a smart speaker to exit the walkman</t>
         </is>
       </c>
       <c r="B617" t="n">
@@ -6608,7 +6608,7 @@
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>Use a smart speaker to close the computer</t>
+          <t>pause the music</t>
         </is>
       </c>
       <c r="B618" t="n">
@@ -6618,7 +6618,7 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>pause the computer</t>
+          <t>Use a smart speaker to close the mp3</t>
         </is>
       </c>
       <c r="B619" t="n">
@@ -6628,7 +6628,7 @@
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>Configure settings to automatically close the earphone</t>
+          <t>Use a smart speaker to exit the music</t>
         </is>
       </c>
       <c r="B620" t="n">
@@ -6638,7 +6638,7 @@
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>Customize a button to stop the walkman</t>
+          <t>Use a smart speaker to close the microphone</t>
         </is>
       </c>
       <c r="B621" t="n">
@@ -6648,7 +6648,7 @@
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>Set a timer to close the phone</t>
+          <t>exit the earphone</t>
         </is>
       </c>
       <c r="B622" t="n">
@@ -6658,7 +6658,7 @@
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>exit the computer</t>
+          <t>Use a smart speaker to turn off the microphone</t>
         </is>
       </c>
       <c r="B623" t="n">
@@ -6668,7 +6668,7 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>Configure settings to automatically exit the microphone</t>
+          <t>Use a smart speaker to stop the phone</t>
         </is>
       </c>
       <c r="B624" t="n">
@@ -6678,7 +6678,7 @@
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>turn off the walkman</t>
+          <t>close the guitar</t>
         </is>
       </c>
       <c r="B625" t="n">
@@ -6688,7 +6688,7 @@
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>Set a timer to stop the music</t>
+          <t>Use a smart speaker to close the earphone</t>
         </is>
       </c>
       <c r="B626" t="n">
@@ -6698,7 +6698,7 @@
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>Customize a button to stop the phone</t>
+          <t>Use a smart speaker to pause the mp3</t>
         </is>
       </c>
       <c r="B627" t="n">
@@ -6708,7 +6708,7 @@
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>Set a timer to pause the phone</t>
+          <t>Configure settings to automatically stop the computer</t>
         </is>
       </c>
       <c r="B628" t="n">
@@ -6718,7 +6718,7 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>exit the guitar</t>
+          <t>pause the earphone</t>
         </is>
       </c>
       <c r="B629" t="n">
@@ -6728,7 +6728,7 @@
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>Use a smart speaker to stop the guitar</t>
+          <t>close the guitar</t>
         </is>
       </c>
       <c r="B630" t="n">
@@ -6738,7 +6738,7 @@
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>Use a smart speaker to exit the walkman</t>
+          <t>Use a smart speaker to close the phone</t>
         </is>
       </c>
       <c r="B631" t="n">
@@ -6748,7 +6748,7 @@
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>Customize a button to exit the mp3</t>
+          <t>Use a smart speaker to stop the mp3</t>
         </is>
       </c>
       <c r="B632" t="n">
@@ -6758,7 +6758,7 @@
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>Use a smart speaker to turn off the music</t>
+          <t>Use a smart speaker to turn off the computer</t>
         </is>
       </c>
       <c r="B633" t="n">
@@ -6768,7 +6768,7 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>Configure settings to automatically close the mp3</t>
+          <t>stop the mp3</t>
         </is>
       </c>
       <c r="B634" t="n">
@@ -6778,7 +6778,7 @@
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>Configure settings to automatically turn off the earphone</t>
+          <t>Configure settings to automatically pause the earphone</t>
         </is>
       </c>
       <c r="B635" t="n">
@@ -6788,7 +6788,7 @@
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>Configure settings to automatically close the phone</t>
+          <t>close the mp3</t>
         </is>
       </c>
       <c r="B636" t="n">
@@ -6798,7 +6798,7 @@
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>Configure settings to automatically pause the mp3</t>
+          <t>pause the guitar</t>
         </is>
       </c>
       <c r="B637" t="n">
@@ -6808,7 +6808,7 @@
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>Set a timer to close the earphone</t>
+          <t>exit the guitar</t>
         </is>
       </c>
       <c r="B638" t="n">
@@ -6818,7 +6818,7 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>Use a smart speaker to stop the computer</t>
+          <t>exit the music</t>
         </is>
       </c>
       <c r="B639" t="n">
@@ -6828,7 +6828,7 @@
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>Set a timer to turn off the walkman</t>
+          <t>turn off the music</t>
         </is>
       </c>
       <c r="B640" t="n">
@@ -6838,7 +6838,7 @@
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>turn off the walkman</t>
+          <t>Use a smart speaker to close the earphone</t>
         </is>
       </c>
       <c r="B641" t="n">
@@ -6848,7 +6848,7 @@
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>Customize a button to turn off the microphone</t>
+          <t>Configure settings to automatically pause the mp3</t>
         </is>
       </c>
       <c r="B642" t="n">
@@ -6858,7 +6858,7 @@
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>Use a smart speaker to turn off the music</t>
+          <t>Use a smart speaker to exit the walkman</t>
         </is>
       </c>
       <c r="B643" t="n">
@@ -6868,7 +6868,7 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>pause the guitar</t>
+          <t>pause the computer</t>
         </is>
       </c>
       <c r="B644" t="n">
@@ -6878,7 +6878,7 @@
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>Configure settings to automatically pause the mp3</t>
+          <t>Use a smart speaker to turn off the microphone</t>
         </is>
       </c>
       <c r="B645" t="n">
@@ -6888,7 +6888,7 @@
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>Customize a button to pause the earphone</t>
+          <t>Use a smart speaker to stop the earphone</t>
         </is>
       </c>
       <c r="B646" t="n">
@@ -6898,7 +6898,7 @@
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>Customize a button to exit the guitar</t>
+          <t>Use a smart speaker to turn off the mp3</t>
         </is>
       </c>
       <c r="B647" t="n">
@@ -6908,7 +6908,7 @@
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>stop the computer</t>
+          <t>Configure settings to automatically stop the walkman</t>
         </is>
       </c>
       <c r="B648" t="n">
@@ -6918,7 +6918,7 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>turn off the microphone</t>
+          <t>Configure settings to automatically stop the computer</t>
         </is>
       </c>
       <c r="B649" t="n">
@@ -6928,7 +6928,7 @@
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>Configure settings to automatically turn off the music</t>
+          <t>Use a smart speaker to close the guitar</t>
         </is>
       </c>
       <c r="B650" t="n">
@@ -6938,7 +6938,7 @@
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>Use a smart speaker to close the mp3</t>
+          <t>exit the music</t>
         </is>
       </c>
       <c r="B651" t="n">
@@ -6948,7 +6948,7 @@
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>Configure settings to automatically close the walkman</t>
+          <t>turn off the earphone</t>
         </is>
       </c>
       <c r="B652" t="n">
@@ -6958,7 +6958,7 @@
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>Customize a button to stop the microphone</t>
+          <t>Configure settings to automatically pause the mp3</t>
         </is>
       </c>
       <c r="B653" t="n">
@@ -6968,7 +6968,7 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>Use a smart speaker to stop the computer</t>
+          <t>Configure settings to automatically stop the microphone</t>
         </is>
       </c>
       <c r="B654" t="n">
@@ -6978,7 +6978,7 @@
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>Use a smart speaker to pause the phone</t>
+          <t>Use a smart speaker to close the earphone</t>
         </is>
       </c>
       <c r="B655" t="n">
@@ -6988,7 +6988,7 @@
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>close the phone</t>
+          <t>Use a smart speaker to pause the earphone</t>
         </is>
       </c>
       <c r="B656" t="n">
@@ -6998,7 +6998,7 @@
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>Use a smart speaker to pause the walkman</t>
+          <t>stop the computer</t>
         </is>
       </c>
       <c r="B657" t="n">
@@ -7008,7 +7008,7 @@
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>Set a timer to pause the music</t>
+          <t>Use a smart speaker to close the music</t>
         </is>
       </c>
       <c r="B658" t="n">
@@ -7018,7 +7018,7 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>exit the guitar</t>
+          <t>Use a smart speaker to stop the mp3</t>
         </is>
       </c>
       <c r="B659" t="n">
@@ -7028,7 +7028,7 @@
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>Configure settings to automatically stop the earphone</t>
+          <t>hit the pause button</t>
         </is>
       </c>
       <c r="B660" t="n">
@@ -7038,7 +7038,7 @@
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>turn off the music</t>
+          <t>close the microphone</t>
         </is>
       </c>
       <c r="B661" t="n">
@@ -7048,7 +7048,7 @@
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>Use a smart speaker to exit the guitar</t>
+          <t>Use a smart speaker to stop the walkman</t>
         </is>
       </c>
       <c r="B662" t="n">
@@ -7058,7 +7058,7 @@
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>Customize a button to turn off the music</t>
+          <t>Use a smart speaker to turn off the phone</t>
         </is>
       </c>
       <c r="B663" t="n">
@@ -7068,7 +7068,7 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>stop the mp3</t>
+          <t>stop the earphone</t>
         </is>
       </c>
       <c r="B664" t="n">
@@ -7078,7 +7078,7 @@
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>Use a smart speaker to turn off the guitar</t>
+          <t>Use a smart speaker to turn off the phone</t>
         </is>
       </c>
       <c r="B665" t="n">
@@ -7088,7 +7088,7 @@
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>Customize a button to turn off the walkman</t>
+          <t>turn off the walkman</t>
         </is>
       </c>
       <c r="B666" t="n">
@@ -7098,7 +7098,7 @@
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>Set a timer to turn off the microphone</t>
+          <t>close the walkman</t>
         </is>
       </c>
       <c r="B667" t="n">
@@ -7108,7 +7108,7 @@
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>Customize a button to exit the earphone</t>
+          <t>Use a smart speaker to close the guitar</t>
         </is>
       </c>
       <c r="B668" t="n">
@@ -7118,7 +7118,7 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>Configure settings to automatically close the music</t>
+          <t>Use a smart speaker to stop the music</t>
         </is>
       </c>
       <c r="B669" t="n">
@@ -7128,7 +7128,7 @@
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>Configure settings to automatically exit the walkman</t>
+          <t>Use a smart speaker to turn off the music</t>
         </is>
       </c>
       <c r="B670" t="n">
@@ -7138,7 +7138,7 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>Use a smart speaker to close the mp3</t>
+          <t>stop the music</t>
         </is>
       </c>
       <c r="B671" t="n">
@@ -7148,7 +7148,7 @@
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>Use a smart speaker to turn off the walkman</t>
+          <t>turn off the walkman</t>
         </is>
       </c>
       <c r="B672" t="n">
@@ -7158,7 +7158,7 @@
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>Use a smart speaker to turn off the mp3</t>
+          <t>Configure settings to automatically stop the microphone</t>
         </is>
       </c>
       <c r="B673" t="n">
@@ -7168,7 +7168,7 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>turn off the earphone</t>
+          <t>close the microphone</t>
         </is>
       </c>
       <c r="B674" t="n">
@@ -7178,7 +7178,7 @@
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>Use a smart speaker to exit the phone</t>
+          <t>close the mp3</t>
         </is>
       </c>
       <c r="B675" t="n">
@@ -7188,7 +7188,7 @@
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>Configure settings to automatically stop the guitar</t>
+          <t>Use a smart speaker to close the phone</t>
         </is>
       </c>
       <c r="B676" t="n">
@@ -7198,7 +7198,7 @@
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>Customize a button to stop the phone</t>
+          <t>Configure settings to automatically stop the phone</t>
         </is>
       </c>
       <c r="B677" t="n">
@@ -7208,7 +7208,7 @@
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>Set a timer to pause the music</t>
+          <t>Use a smart speaker to turn off the microphone</t>
         </is>
       </c>
       <c r="B678" t="n">
@@ -7218,7 +7218,7 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>close the mp3</t>
+          <t>Use a smart speaker to stop the earphone</t>
         </is>
       </c>
       <c r="B679" t="n">
@@ -7228,7 +7228,7 @@
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>Customize a button to exit the microphone</t>
+          <t>Use a smart speaker to close the guitar</t>
         </is>
       </c>
       <c r="B680" t="n">
@@ -7238,7 +7238,7 @@
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>turn off the earphone</t>
+          <t>Configure settings to automatically pause the guitar</t>
         </is>
       </c>
       <c r="B681" t="n">
@@ -7248,7 +7248,7 @@
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>Use a smart speaker to turn off the music</t>
+          <t>Configure settings to automatically pause the music</t>
         </is>
       </c>
       <c r="B682" t="n">
@@ -7258,7 +7258,7 @@
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>Configure settings to automatically stop the mp3</t>
+          <t>Use a smart speaker to close the walkman</t>
         </is>
       </c>
       <c r="B683" t="n">
@@ -7268,7 +7268,7 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>Customize a button to pause the music</t>
+          <t>Use a smart speaker to close the computer</t>
         </is>
       </c>
       <c r="B684" t="n">
@@ -7278,7 +7278,7 @@
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>pause the mp3</t>
+          <t>Configure settings to automatically pause the microphone</t>
         </is>
       </c>
       <c r="B685" t="n">
@@ -7288,7 +7288,7 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>Customize a button to exit the music</t>
+          <t>exit the music</t>
         </is>
       </c>
       <c r="B686" t="n">
@@ -7298,7 +7298,7 @@
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>Configure settings to automatically stop the computer</t>
+          <t>Use a smart speaker to close the earphone</t>
         </is>
       </c>
       <c r="B687" t="n">
@@ -7308,7 +7308,7 @@
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>Configure settings to automatically stop the earphone</t>
+          <t>Configure settings to automatically stop the microphone</t>
         </is>
       </c>
       <c r="B688" t="n">
@@ -7318,7 +7318,7 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>Use a smart speaker to turn off the mp3</t>
+          <t>stop the walkman</t>
         </is>
       </c>
       <c r="B689" t="n">
@@ -7328,7 +7328,7 @@
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>Customize a button to stop the music</t>
+          <t>pause the walkman</t>
         </is>
       </c>
       <c r="B690" t="n">
@@ -7338,7 +7338,7 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>Use a smart speaker to pause the computer</t>
+          <t>pause the guitar</t>
         </is>
       </c>
       <c r="B691" t="n">
@@ -7348,7 +7348,7 @@
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>Set a timer to close the music</t>
+          <t>pause the walkman</t>
         </is>
       </c>
       <c r="B692" t="n">
@@ -7358,7 +7358,7 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>Customize a button to close the mp3</t>
+          <t>Use a smart speaker to close the guitar</t>
         </is>
       </c>
       <c r="B693" t="n">
@@ -7368,7 +7368,7 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>Configure settings to automatically turn off the walkman</t>
+          <t>hit the close button</t>
         </is>
       </c>
       <c r="B694" t="n">
@@ -7378,7 +7378,7 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>turn off the computer</t>
+          <t>Use a smart speaker to stop the walkman</t>
         </is>
       </c>
       <c r="B695" t="n">
@@ -7388,7 +7388,7 @@
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>Set a timer to close the guitar</t>
+          <t>Use a smart speaker to pause the mp3</t>
         </is>
       </c>
       <c r="B696" t="n">
@@ -7398,7 +7398,7 @@
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>Configure settings to automatically exit the mp3</t>
+          <t>Use a smart speaker to exit the microphone</t>
         </is>
       </c>
       <c r="B697" t="n">
@@ -7408,7 +7408,7 @@
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>close the music</t>
+          <t>close the mp3</t>
         </is>
       </c>
       <c r="B698" t="n">
@@ -7418,7 +7418,7 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>hit the stop button</t>
+          <t>Use a smart speaker to stop the walkman</t>
         </is>
       </c>
       <c r="B699" t="n">
@@ -7428,7 +7428,7 @@
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>close the phone</t>
+          <t>turn off the walkman</t>
         </is>
       </c>
       <c r="B700" t="n">
@@ -7438,7 +7438,7 @@
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>Customize a button to pause the phone</t>
+          <t>Use a smart speaker to stop the walkman</t>
         </is>
       </c>
       <c r="B701" t="n">
@@ -7448,7 +7448,7 @@
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>Set a timer to pause the computer</t>
+          <t>Configure settings to automatically pause the phone</t>
         </is>
       </c>
       <c r="B702" t="n">
@@ -7458,7 +7458,7 @@
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>Customize a button to close the microphone</t>
+          <t>close the music</t>
         </is>
       </c>
       <c r="B703" t="n">
@@ -7468,7 +7468,7 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>Configure settings to automatically turn off the walkman</t>
+          <t>turn off the mp3</t>
         </is>
       </c>
       <c r="B704" t="n">
@@ -7478,7 +7478,7 @@
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>Configure settings to automatically pause the microphone</t>
+          <t>Use a smart speaker to pause the guitar</t>
         </is>
       </c>
       <c r="B705" t="n">
@@ -7488,7 +7488,7 @@
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>turn off the microphone</t>
+          <t>exit the walkman</t>
         </is>
       </c>
       <c r="B706" t="n">
@@ -7498,7 +7498,7 @@
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>Use a smart speaker to pause the microphone</t>
+          <t>Use a smart speaker to close the earphone</t>
         </is>
       </c>
       <c r="B707" t="n">
@@ -7508,7 +7508,7 @@
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>Customize a button to turn off the mp3</t>
+          <t>Use a smart speaker to stop the earphone</t>
         </is>
       </c>
       <c r="B708" t="n">
@@ -7518,7 +7518,7 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>hit the turn off button</t>
+          <t>Use a smart speaker to close the music</t>
         </is>
       </c>
       <c r="B709" t="n">
@@ -7528,7 +7528,7 @@
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>Use a smart speaker to turn off the phone</t>
+          <t>Configure settings to automatically stop the mp3</t>
         </is>
       </c>
       <c r="B710" t="n">
@@ -7538,7 +7538,7 @@
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>Configure settings to automatically pause the mp3</t>
+          <t>Configure settings to automatically pause the microphone</t>
         </is>
       </c>
       <c r="B711" t="n">
@@ -7548,7 +7548,7 @@
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>Use a smart speaker to close the phone</t>
+          <t>Use a smart speaker to turn off the phone</t>
         </is>
       </c>
       <c r="B712" t="n">
@@ -7558,7 +7558,7 @@
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>Set a timer to pause the phone</t>
+          <t>Use a smart speaker to exit the phone</t>
         </is>
       </c>
       <c r="B713" t="n">
@@ -7568,7 +7568,7 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>Set a timer to close the mp3</t>
+          <t>stop the computer</t>
         </is>
       </c>
       <c r="B714" t="n">
@@ -7578,7 +7578,7 @@
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>Use a smart speaker to pause the music</t>
+          <t>exit the earphone</t>
         </is>
       </c>
       <c r="B715" t="n">
@@ -7588,7 +7588,7 @@
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>close the microphone</t>
+          <t>exit the phone</t>
         </is>
       </c>
       <c r="B716" t="n">
@@ -7598,7 +7598,7 @@
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>Customize a button to stop the microphone</t>
+          <t>Use a smart speaker to close the computer</t>
         </is>
       </c>
       <c r="B717" t="n">
@@ -7608,7 +7608,7 @@
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>Use a smart speaker to turn off the microphone</t>
+          <t>stop the walkman</t>
         </is>
       </c>
       <c r="B718" t="n">
@@ -7618,7 +7618,7 @@
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>Use a smart speaker to turn off the guitar</t>
+          <t>stop the guitar</t>
         </is>
       </c>
       <c r="B719" t="n">
@@ -7628,7 +7628,7 @@
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>Use a smart speaker to stop the computer</t>
+          <t>close the microphone</t>
         </is>
       </c>
       <c r="B720" t="n">
@@ -7638,7 +7638,7 @@
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>Configure settings to automatically close the guitar</t>
+          <t>exit the microphone</t>
         </is>
       </c>
       <c r="B721" t="n">
@@ -7648,7 +7648,7 @@
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>Use a smart speaker to pause the earphone</t>
+          <t>hit the pause button</t>
         </is>
       </c>
       <c r="B722" t="n">
@@ -7658,7 +7658,7 @@
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>Set a timer to close the guitar</t>
+          <t>turn off the guitar</t>
         </is>
       </c>
       <c r="B723" t="n">
@@ -7668,7 +7668,7 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>close the mp3</t>
+          <t>Configure settings to automatically pause the guitar</t>
         </is>
       </c>
       <c r="B724" t="n">
@@ -7678,7 +7678,7 @@
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>Customize a button to turn off the microphone</t>
+          <t>stop the walkman</t>
         </is>
       </c>
       <c r="B725" t="n">
@@ -7688,7 +7688,7 @@
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>Use a smart speaker to exit the music</t>
+          <t>turn off the microphone</t>
         </is>
       </c>
       <c r="B726" t="n">
@@ -7698,7 +7698,7 @@
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>Set a timer to close the guitar</t>
+          <t>stop the earphone</t>
         </is>
       </c>
       <c r="B727" t="n">
@@ -7708,7 +7708,7 @@
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>Set a timer to pause the guitar</t>
+          <t>turn off the mp3</t>
         </is>
       </c>
       <c r="B728" t="n">
@@ -7718,7 +7718,7 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>Configure settings to automatically exit the computer</t>
+          <t>Use a smart speaker to turn off the phone</t>
         </is>
       </c>
       <c r="B729" t="n">
@@ -7728,7 +7728,7 @@
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>Customize a button to exit the mp3</t>
+          <t>hit the exit button</t>
         </is>
       </c>
       <c r="B730" t="n">
@@ -7738,7 +7738,7 @@
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>Customize a button to close the music</t>
+          <t>Use a smart speaker to exit the computer</t>
         </is>
       </c>
       <c r="B731" t="n">
@@ -7748,7 +7748,7 @@
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>Configure settings to automatically exit the music</t>
+          <t>turn off the mp3</t>
         </is>
       </c>
       <c r="B732" t="n">
@@ -7758,7 +7758,7 @@
     <row r="733">
       <c r="A733" t="inlineStr">
         <is>
-          <t>turn off the microphone</t>
+          <t>Use a smart speaker to pause the microphone</t>
         </is>
       </c>
       <c r="B733" t="n">
@@ -7768,7 +7768,7 @@
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>Set a timer to turn off the guitar</t>
+          <t>pause the computer</t>
         </is>
       </c>
       <c r="B734" t="n">
@@ -7778,7 +7778,7 @@
     <row r="735">
       <c r="A735" t="inlineStr">
         <is>
-          <t>Use a smart speaker to turn off the microphone</t>
+          <t>Use a smart speaker to turn off the music</t>
         </is>
       </c>
       <c r="B735" t="n">
@@ -7788,7 +7788,7 @@
     <row r="736">
       <c r="A736" t="inlineStr">
         <is>
-          <t>close the guitar</t>
+          <t>Use a smart speaker to turn off the earphone</t>
         </is>
       </c>
       <c r="B736" t="n">
@@ -7798,7 +7798,7 @@
     <row r="737">
       <c r="A737" t="inlineStr">
         <is>
-          <t>Use a smart speaker to stop the microphone</t>
+          <t>hit the pause button</t>
         </is>
       </c>
       <c r="B737" t="n">
@@ -7808,7 +7808,7 @@
     <row r="738">
       <c r="A738" t="inlineStr">
         <is>
-          <t>Set a timer to stop the mp3</t>
+          <t>Configure settings to automatically stop the microphone</t>
         </is>
       </c>
       <c r="B738" t="n">
@@ -7818,7 +7818,7 @@
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>Customize a button to pause the mp3</t>
+          <t>stop the music</t>
         </is>
       </c>
       <c r="B739" t="n">
@@ -7828,7 +7828,7 @@
     <row r="740">
       <c r="A740" t="inlineStr">
         <is>
-          <t>close the phone</t>
+          <t>Use a smart speaker to pause the computer</t>
         </is>
       </c>
       <c r="B740" t="n">
@@ -7838,7 +7838,7 @@
     <row r="741">
       <c r="A741" t="inlineStr">
         <is>
-          <t>Configure settings to automatically turn off the guitar</t>
+          <t>turn off the mp3</t>
         </is>
       </c>
       <c r="B741" t="n">
@@ -7848,7 +7848,7 @@
     <row r="742">
       <c r="A742" t="inlineStr">
         <is>
-          <t>pause the music</t>
+          <t>turn off the microphone</t>
         </is>
       </c>
       <c r="B742" t="n">
@@ -7858,7 +7858,7 @@
     <row r="743">
       <c r="A743" t="inlineStr">
         <is>
-          <t>close the phone</t>
+          <t>Configure settings to automatically pause the guitar</t>
         </is>
       </c>
       <c r="B743" t="n">
@@ -7868,7 +7868,7 @@
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>Configure settings to automatically turn off the mp3</t>
+          <t>Use a smart speaker to close the mp3</t>
         </is>
       </c>
       <c r="B744" t="n">
@@ -7878,7 +7878,7 @@
     <row r="745">
       <c r="A745" t="inlineStr">
         <is>
-          <t>hit the turn off button</t>
+          <t>Configure settings to automatically pause the walkman</t>
         </is>
       </c>
       <c r="B745" t="n">
@@ -7888,7 +7888,7 @@
     <row r="746">
       <c r="A746" t="inlineStr">
         <is>
-          <t>Use a smart speaker to close the mp3</t>
+          <t>Use a smart speaker to stop the phone</t>
         </is>
       </c>
       <c r="B746" t="n">
@@ -7898,7 +7898,7 @@
     <row r="747">
       <c r="A747" t="inlineStr">
         <is>
-          <t>Set a timer to close the microphone</t>
+          <t>turn off the microphone</t>
         </is>
       </c>
       <c r="B747" t="n">
@@ -7908,7 +7908,7 @@
     <row r="748">
       <c r="A748" t="inlineStr">
         <is>
-          <t>Use a smart speaker to close the microphone</t>
+          <t>close the earphone</t>
         </is>
       </c>
       <c r="B748" t="n">
@@ -7928,7 +7928,7 @@
     <row r="750">
       <c r="A750" t="inlineStr">
         <is>
-          <t>Customize a button to turn off the walkman</t>
+          <t>turn off the walkman</t>
         </is>
       </c>
       <c r="B750" t="n">
@@ -7938,7 +7938,7 @@
     <row r="751">
       <c r="A751" t="inlineStr">
         <is>
-          <t>exit the walkman</t>
+          <t>hit the exit button</t>
         </is>
       </c>
       <c r="B751" t="n">
@@ -7948,7 +7948,7 @@
     <row r="752">
       <c r="A752" t="inlineStr">
         <is>
-          <t>Customize a button to exit the earphone</t>
+          <t>hit the stop button</t>
         </is>
       </c>
       <c r="B752" t="n">
@@ -7958,7 +7958,7 @@
     <row r="753">
       <c r="A753" t="inlineStr">
         <is>
-          <t>Use a smart speaker to exit the earphone</t>
+          <t>pause the computer</t>
         </is>
       </c>
       <c r="B753" t="n">
@@ -7968,7 +7968,7 @@
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>Configure settings to automatically turn off the phone</t>
+          <t>Use a smart speaker to stop the earphone</t>
         </is>
       </c>
       <c r="B754" t="n">
@@ -7978,7 +7978,7 @@
     <row r="755">
       <c r="A755" t="inlineStr">
         <is>
-          <t>Set a timer to pause the mp3</t>
+          <t>Use a smart speaker to pause the phone</t>
         </is>
       </c>
       <c r="B755" t="n">
@@ -7988,7 +7988,7 @@
     <row r="756">
       <c r="A756" t="inlineStr">
         <is>
-          <t>Use a smart speaker to exit the computer</t>
+          <t>Use a smart speaker to turn off the phone</t>
         </is>
       </c>
       <c r="B756" t="n">
@@ -7998,7 +7998,7 @@
     <row r="757">
       <c r="A757" t="inlineStr">
         <is>
-          <t>close the music</t>
+          <t>Use a smart speaker to stop the computer</t>
         </is>
       </c>
       <c r="B757" t="n">
@@ -8008,7 +8008,7 @@
     <row r="758">
       <c r="A758" t="inlineStr">
         <is>
-          <t>Configure settings to automatically pause the microphone</t>
+          <t>stop the guitar</t>
         </is>
       </c>
       <c r="B758" t="n">
@@ -8018,7 +8018,7 @@
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t>Use a smart speaker to exit the walkman</t>
+          <t>close the walkman</t>
         </is>
       </c>
       <c r="B759" t="n">
@@ -8028,7 +8028,7 @@
     <row r="760">
       <c r="A760" t="inlineStr">
         <is>
-          <t>Use a smart speaker to stop the music</t>
+          <t>exit the guitar</t>
         </is>
       </c>
       <c r="B760" t="n">
@@ -8038,7 +8038,7 @@
     <row r="761">
       <c r="A761" t="inlineStr">
         <is>
-          <t>turn off the earphone</t>
+          <t>Use a smart speaker to turn off the walkman</t>
         </is>
       </c>
       <c r="B761" t="n">
@@ -8048,7 +8048,7 @@
     <row r="762">
       <c r="A762" t="inlineStr">
         <is>
-          <t>Use a smart speaker to stop the computer</t>
+          <t>turn off the phone</t>
         </is>
       </c>
       <c r="B762" t="n">
@@ -8058,7 +8058,7 @@
     <row r="763">
       <c r="A763" t="inlineStr">
         <is>
-          <t>close the phone</t>
+          <t>close the microphone</t>
         </is>
       </c>
       <c r="B763" t="n">
@@ -8068,7 +8068,7 @@
     <row r="764">
       <c r="A764" t="inlineStr">
         <is>
-          <t>Set a timer to exit the microphone</t>
+          <t>Use a smart speaker to turn off the microphone</t>
         </is>
       </c>
       <c r="B764" t="n">
@@ -8078,7 +8078,7 @@
     <row r="765">
       <c r="A765" t="inlineStr">
         <is>
-          <t>Configure settings to automatically stop the walkman</t>
+          <t>pause the mp3</t>
         </is>
       </c>
       <c r="B765" t="n">
@@ -8088,7 +8088,7 @@
     <row r="766">
       <c r="A766" t="inlineStr">
         <is>
-          <t>Configure settings to automatically close the guitar</t>
+          <t>Configure settings to automatically pause the phone</t>
         </is>
       </c>
       <c r="B766" t="n">
@@ -8098,7 +8098,7 @@
     <row r="767">
       <c r="A767" t="inlineStr">
         <is>
-          <t>pause the microphone</t>
+          <t>Use a smart speaker to pause the mp3</t>
         </is>
       </c>
       <c r="B767" t="n">
@@ -8108,7 +8108,7 @@
     <row r="768">
       <c r="A768" t="inlineStr">
         <is>
-          <t>stop the guitar</t>
+          <t>Use a smart speaker to turn off the music</t>
         </is>
       </c>
       <c r="B768" t="n">
@@ -8118,7 +8118,7 @@
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>Configure settings to automatically pause the mp3</t>
+          <t>Use a smart speaker to exit the computer</t>
         </is>
       </c>
       <c r="B769" t="n">
@@ -8128,7 +8128,7 @@
     <row r="770">
       <c r="A770" t="inlineStr">
         <is>
-          <t>Set a timer to pause the music</t>
+          <t>stop the phone</t>
         </is>
       </c>
       <c r="B770" t="n">
@@ -8138,7 +8138,7 @@
     <row r="771">
       <c r="A771" t="inlineStr">
         <is>
-          <t>pause the phone</t>
+          <t>exit the phone</t>
         </is>
       </c>
       <c r="B771" t="n">
@@ -8148,7 +8148,7 @@
     <row r="772">
       <c r="A772" t="inlineStr">
         <is>
-          <t>Configure settings to automatically stop the music</t>
+          <t>Use a smart speaker to stop the phone</t>
         </is>
       </c>
       <c r="B772" t="n">
@@ -8158,7 +8158,7 @@
     <row r="773">
       <c r="A773" t="inlineStr">
         <is>
-          <t>Configure settings to automatically turn off the guitar</t>
+          <t>close the computer</t>
         </is>
       </c>
       <c r="B773" t="n">
@@ -8168,7 +8168,7 @@
     <row r="774">
       <c r="A774" t="inlineStr">
         <is>
-          <t>Set a timer to close the mp3</t>
+          <t>exit the walkman</t>
         </is>
       </c>
       <c r="B774" t="n">
@@ -8178,7 +8178,7 @@
     <row r="775">
       <c r="A775" t="inlineStr">
         <is>
-          <t>Configure settings to automatically stop the music</t>
+          <t>close the computer</t>
         </is>
       </c>
       <c r="B775" t="n">
@@ -8188,7 +8188,7 @@
     <row r="776">
       <c r="A776" t="inlineStr">
         <is>
-          <t>Customize a button to pause the guitar</t>
+          <t>Use a smart speaker to pause the guitar</t>
         </is>
       </c>
       <c r="B776" t="n">
@@ -8198,7 +8198,7 @@
     <row r="777">
       <c r="A777" t="inlineStr">
         <is>
-          <t>Customize a button to exit the phone</t>
+          <t>Use a smart speaker to stop the walkman</t>
         </is>
       </c>
       <c r="B777" t="n">
@@ -8208,7 +8208,7 @@
     <row r="778">
       <c r="A778" t="inlineStr">
         <is>
-          <t>Use a smart speaker to close the microphone</t>
+          <t>Use a smart speaker to turn off the computer</t>
         </is>
       </c>
       <c r="B778" t="n">
@@ -8218,7 +8218,7 @@
     <row r="779">
       <c r="A779" t="inlineStr">
         <is>
-          <t>Use a smart speaker to close the walkman</t>
+          <t>Configure settings to automatically pause the mp3</t>
         </is>
       </c>
       <c r="B779" t="n">
@@ -8228,7 +8228,7 @@
     <row r="780">
       <c r="A780" t="inlineStr">
         <is>
-          <t>Configure settings to automatically pause the walkman</t>
+          <t>Use a smart speaker to stop the guitar</t>
         </is>
       </c>
       <c r="B780" t="n">
@@ -8238,7 +8238,7 @@
     <row r="781">
       <c r="A781" t="inlineStr">
         <is>
-          <t>Customize a button to pause the computer</t>
+          <t>Use a smart speaker to turn off the music</t>
         </is>
       </c>
       <c r="B781" t="n">
@@ -8248,7 +8248,7 @@
     <row r="782">
       <c r="A782" t="inlineStr">
         <is>
-          <t>Configure settings to automatically close the phone</t>
+          <t>pause the microphone</t>
         </is>
       </c>
       <c r="B782" t="n">
@@ -8258,7 +8258,7 @@
     <row r="783">
       <c r="A783" t="inlineStr">
         <is>
-          <t>Customize a button to exit the microphone</t>
+          <t>Use a smart speaker to exit the mp3</t>
         </is>
       </c>
       <c r="B783" t="n">
@@ -8268,7 +8268,7 @@
     <row r="784">
       <c r="A784" t="inlineStr">
         <is>
-          <t>Configure settings to automatically exit the guitar</t>
+          <t>stop the microphone</t>
         </is>
       </c>
       <c r="B784" t="n">
@@ -8278,7 +8278,7 @@
     <row r="785">
       <c r="A785" t="inlineStr">
         <is>
-          <t>stop the walkman</t>
+          <t>close the walkman</t>
         </is>
       </c>
       <c r="B785" t="n">
@@ -8288,7 +8288,7 @@
     <row r="786">
       <c r="A786" t="inlineStr">
         <is>
-          <t>hit the stop button</t>
+          <t>Use a smart speaker to exit the earphone</t>
         </is>
       </c>
       <c r="B786" t="n">
@@ -8298,7 +8298,7 @@
     <row r="787">
       <c r="A787" t="inlineStr">
         <is>
-          <t>exit the computer</t>
+          <t>turn off the microphone</t>
         </is>
       </c>
       <c r="B787" t="n">
@@ -8308,7 +8308,7 @@
     <row r="788">
       <c r="A788" t="inlineStr">
         <is>
-          <t>Configure settings to automatically exit the computer</t>
+          <t>Use a smart speaker to turn off the computer</t>
         </is>
       </c>
       <c r="B788" t="n">
@@ -8318,7 +8318,7 @@
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>Customize a button to close the phone</t>
+          <t>Configure settings to automatically pause the music</t>
         </is>
       </c>
       <c r="B789" t="n">
@@ -8328,7 +8328,7 @@
     <row r="790">
       <c r="A790" t="inlineStr">
         <is>
-          <t>Use a smart speaker to turn off the phone</t>
+          <t>Use a smart speaker to close the earphone</t>
         </is>
       </c>
       <c r="B790" t="n">
@@ -8338,7 +8338,7 @@
     <row r="791">
       <c r="A791" t="inlineStr">
         <is>
-          <t>Configure settings to automatically exit the computer</t>
+          <t>Configure settings to automatically stop the computer</t>
         </is>
       </c>
       <c r="B791" t="n">
@@ -8348,7 +8348,7 @@
     <row r="792">
       <c r="A792" t="inlineStr">
         <is>
-          <t>Customize a button to close the earphone</t>
+          <t>Use a smart speaker to pause the microphone</t>
         </is>
       </c>
       <c r="B792" t="n">
@@ -8358,7 +8358,7 @@
     <row r="793">
       <c r="A793" t="inlineStr">
         <is>
-          <t>Set a timer to turn off the mp3</t>
+          <t>Use a smart speaker to close the phone</t>
         </is>
       </c>
       <c r="B793" t="n">
@@ -8368,7 +8368,7 @@
     <row r="794">
       <c r="A794" t="inlineStr">
         <is>
-          <t>Configure settings to automatically turn off the mp3</t>
+          <t>exit the earphone</t>
         </is>
       </c>
       <c r="B794" t="n">
@@ -8378,7 +8378,7 @@
     <row r="795">
       <c r="A795" t="inlineStr">
         <is>
-          <t>Use a smart speaker to exit the microphone</t>
+          <t>Use a smart speaker to exit the guitar</t>
         </is>
       </c>
       <c r="B795" t="n">
@@ -8388,7 +8388,7 @@
     <row r="796">
       <c r="A796" t="inlineStr">
         <is>
-          <t>Set a timer to exit the guitar</t>
+          <t>Configure settings to automatically pause the walkman</t>
         </is>
       </c>
       <c r="B796" t="n">
@@ -8398,7 +8398,7 @@
     <row r="797">
       <c r="A797" t="inlineStr">
         <is>
-          <t>Set a timer to turn off the earphone</t>
+          <t>Use a smart speaker to stop the music</t>
         </is>
       </c>
       <c r="B797" t="n">
@@ -8408,7 +8408,7 @@
     <row r="798">
       <c r="A798" t="inlineStr">
         <is>
-          <t>exit the microphone</t>
+          <t>turn off the guitar</t>
         </is>
       </c>
       <c r="B798" t="n">
@@ -8418,7 +8418,7 @@
     <row r="799">
       <c r="A799" t="inlineStr">
         <is>
-          <t>Customize a button to close the microphone</t>
+          <t>pause the computer</t>
         </is>
       </c>
       <c r="B799" t="n">
@@ -8428,7 +8428,7 @@
     <row r="800">
       <c r="A800" t="inlineStr">
         <is>
-          <t>Customize a button to pause the microphone</t>
+          <t>Use a smart speaker to close the earphone</t>
         </is>
       </c>
       <c r="B800" t="n">
@@ -8438,7 +8438,7 @@
     <row r="801">
       <c r="A801" t="inlineStr">
         <is>
-          <t>stop the guitar</t>
+          <t>close the phone</t>
         </is>
       </c>
       <c r="B801" t="n">
@@ -8448,7 +8448,7 @@
     <row r="802">
       <c r="A802" t="inlineStr">
         <is>
-          <t>What is the epoch defined by Jay-Z?</t>
+          <t>What is the epoch defined by Led Zeppelin?</t>
         </is>
       </c>
       <c r="B802" t="n">
@@ -8458,7 +8458,7 @@
     <row r="803">
       <c r="A803" t="inlineStr">
         <is>
-          <t>What is the epoch dominated by Marvin Gaye?</t>
+          <t>What is the epoch defined by Bob Dylan?</t>
         </is>
       </c>
       <c r="B803" t="n">
@@ -8468,7 +8468,7 @@
     <row r="804">
       <c r="A804" t="inlineStr">
         <is>
-          <t>When was the top of career for Madonna?</t>
+          <t>When was the top of career for Coldplay?</t>
         </is>
       </c>
       <c r="B804" t="n">
@@ -8478,7 +8478,7 @@
     <row r="805">
       <c r="A805" t="inlineStr">
         <is>
-          <t>What is the epoch defined by Elvis Presley?</t>
+          <t>When was the top of career for Green Day?</t>
         </is>
       </c>
       <c r="B805" t="n">
@@ -8488,7 +8488,7 @@
     <row r="806">
       <c r="A806" t="inlineStr">
         <is>
-          <t>What is the epoch defined by Led Zeppelin?</t>
+          <t>When was the top of career for Michael Jackson?</t>
         </is>
       </c>
       <c r="B806" t="n">
@@ -8498,7 +8498,7 @@
     <row r="807">
       <c r="A807" t="inlineStr">
         <is>
-          <t>What is the epoch dominated by Whitney Houston?</t>
+          <t>What is the epoch defined by Madonna?</t>
         </is>
       </c>
       <c r="B807" t="n">
@@ -8508,7 +8508,7 @@
     <row r="808">
       <c r="A808" t="inlineStr">
         <is>
-          <t>What is the epoch defined by Madonna?</t>
+          <t>When was the top of career for Taylor Swift?</t>
         </is>
       </c>
       <c r="B808" t="n">
@@ -8518,7 +8518,7 @@
     <row r="809">
       <c r="A809" t="inlineStr">
         <is>
-          <t>When was the top of career for Billie Eilish?</t>
+          <t>When was the top of career for Bruno Mars?</t>
         </is>
       </c>
       <c r="B809" t="n">
@@ -8528,7 +8528,7 @@
     <row r="810">
       <c r="A810" t="inlineStr">
         <is>
-          <t>What is the epoch defined by Jimi Hendrix?</t>
+          <t>When was the top of career for U2?</t>
         </is>
       </c>
       <c r="B810" t="n">
@@ -8538,7 +8538,7 @@
     <row r="811">
       <c r="A811" t="inlineStr">
         <is>
-          <t>What is the epoch dominated by Queen?</t>
+          <t>When was the top of career for Madonna?</t>
         </is>
       </c>
       <c r="B811" t="n">
@@ -8548,7 +8548,7 @@
     <row r="812">
       <c r="A812" t="inlineStr">
         <is>
-          <t>What is the epoch defined by Taylor Swift?</t>
+          <t>When was the top of career for Beyoncé?</t>
         </is>
       </c>
       <c r="B812" t="n">
@@ -8558,7 +8558,7 @@
     <row r="813">
       <c r="A813" t="inlineStr">
         <is>
-          <t>When was the top of career for Prince?</t>
+          <t>What is the epoch defined by Stevie Wonder?</t>
         </is>
       </c>
       <c r="B813" t="n">
@@ -8568,7 +8568,7 @@
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t>What is the epoch dominated by Pearl Jam?</t>
+          <t>When was the top of career for Jimi Hendrix?</t>
         </is>
       </c>
       <c r="B814" t="n">
@@ -8578,7 +8578,7 @@
     <row r="815">
       <c r="A815" t="inlineStr">
         <is>
-          <t>What is the epoch defined by Coldplay?</t>
+          <t>When was the top of career for The Rolling Stones?</t>
         </is>
       </c>
       <c r="B815" t="n">
@@ -8588,7 +8588,7 @@
     <row r="816">
       <c r="A816" t="inlineStr">
         <is>
-          <t>When was the top of career for Elvis Presley?</t>
+          <t>When was the top of career for Michael Jackson?</t>
         </is>
       </c>
       <c r="B816" t="n">
@@ -8598,7 +8598,7 @@
     <row r="817">
       <c r="A817" t="inlineStr">
         <is>
-          <t>What is the epoch defined by Kendrick Lamar?</t>
+          <t>When was the top of career for Coldplay?</t>
         </is>
       </c>
       <c r="B817" t="n">
@@ -8608,7 +8608,7 @@
     <row r="818">
       <c r="A818" t="inlineStr">
         <is>
-          <t>What is the epoch defined by Red Hot Chili Peppers?</t>
+          <t>When was the top of career for Radiohead?</t>
         </is>
       </c>
       <c r="B818" t="n">
@@ -8618,7 +8618,7 @@
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t>What is the epoch defined by Stevie Wonder?</t>
+          <t>When was the top of career for Kendrick Lamar?</t>
         </is>
       </c>
       <c r="B819" t="n">
@@ -8628,7 +8628,7 @@
     <row r="820">
       <c r="A820" t="inlineStr">
         <is>
-          <t>What is the epoch dominated by Eminem?</t>
+          <t>What is the epoch defined by Aretha Franklin?</t>
         </is>
       </c>
       <c r="B820" t="n">
@@ -8638,7 +8638,7 @@
     <row r="821">
       <c r="A821" t="inlineStr">
         <is>
-          <t>What is the epoch dominated by Kanye West?</t>
+          <t>When was the top of career for Green Day?</t>
         </is>
       </c>
       <c r="B821" t="n">
@@ -8648,7 +8648,7 @@
     <row r="822">
       <c r="A822" t="inlineStr">
         <is>
-          <t>What is the epoch dominated by Kanye West?</t>
+          <t>When was the top of career for Ed Sheeran?</t>
         </is>
       </c>
       <c r="B822" t="n">
@@ -8658,7 +8658,7 @@
     <row r="823">
       <c r="A823" t="inlineStr">
         <is>
-          <t>When was the top of career for Metallica?</t>
+          <t>What is the epoch defined by Madonna?</t>
         </is>
       </c>
       <c r="B823" t="n">
@@ -8668,7 +8668,7 @@
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>What is the epoch defined by Rihanna?</t>
+          <t>What is the epoch defined by Madonna?</t>
         </is>
       </c>
       <c r="B824" t="n">
@@ -8678,7 +8678,7 @@
     <row r="825">
       <c r="A825" t="inlineStr">
         <is>
-          <t>What is the epoch dominated by Jay-Z?</t>
+          <t>When was the top of career for Red Hot Chili Peppers?</t>
         </is>
       </c>
       <c r="B825" t="n">
@@ -8688,7 +8688,7 @@
     <row r="826">
       <c r="A826" t="inlineStr">
         <is>
-          <t>What is the epoch dominated by Jay-Z?</t>
+          <t>When was the top of career for Bruno Mars?</t>
         </is>
       </c>
       <c r="B826" t="n">
@@ -8698,7 +8698,7 @@
     <row r="827">
       <c r="A827" t="inlineStr">
         <is>
-          <t>What is the epoch defined by U2?</t>
+          <t>When was the top of career for Aretha Franklin?</t>
         </is>
       </c>
       <c r="B827" t="n">
@@ -8708,7 +8708,7 @@
     <row r="828">
       <c r="A828" t="inlineStr">
         <is>
-          <t>When was the top of career for Beyoncé?</t>
+          <t>What is the epoch defined by Pearl Jam?</t>
         </is>
       </c>
       <c r="B828" t="n">
@@ -8718,7 +8718,7 @@
     <row r="829">
       <c r="A829" t="inlineStr">
         <is>
-          <t>When was the top of career for Kendrick Lamar?</t>
+          <t>What is the epoch defined by Led Zeppelin?</t>
         </is>
       </c>
       <c r="B829" t="n">
@@ -8728,7 +8728,7 @@
     <row r="830">
       <c r="A830" t="inlineStr">
         <is>
-          <t>What is the epoch defined by Stevie Wonder?</t>
+          <t>What is the epoch defined by Led Zeppelin?</t>
         </is>
       </c>
       <c r="B830" t="n">
@@ -8738,7 +8738,7 @@
     <row r="831">
       <c r="A831" t="inlineStr">
         <is>
-          <t>What is the epoch defined by Radiohead?</t>
+          <t>When was the top of career for Prince?</t>
         </is>
       </c>
       <c r="B831" t="n">
@@ -8748,7 +8748,7 @@
     <row r="832">
       <c r="A832" t="inlineStr">
         <is>
-          <t>What is the epoch dominated by Drake?</t>
+          <t>When was the top of career for Metallica?</t>
         </is>
       </c>
       <c r="B832" t="n">
@@ -8758,7 +8758,7 @@
     <row r="833">
       <c r="A833" t="inlineStr">
         <is>
-          <t>When was the top of career for Bruno Mars?</t>
+          <t>What is the epoch defined by Led Zeppelin?</t>
         </is>
       </c>
       <c r="B833" t="n">
@@ -8768,7 +8768,7 @@
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t>What is the epoch dominated by Kanye West?</t>
+          <t>What is the epoch defined by Nirvana?</t>
         </is>
       </c>
       <c r="B834" t="n">
@@ -8778,7 +8778,7 @@
     <row r="835">
       <c r="A835" t="inlineStr">
         <is>
-          <t>What is the epoch defined by Jimi Hendrix?</t>
+          <t>When was the top of career for Coldplay?</t>
         </is>
       </c>
       <c r="B835" t="n">
@@ -8788,7 +8788,7 @@
     <row r="836">
       <c r="A836" t="inlineStr">
         <is>
-          <t>What is the epoch dominated by Kendrick Lamar?</t>
+          <t>When was the top of career for Whitney Houston?</t>
         </is>
       </c>
       <c r="B836" t="n">
@@ -8798,7 +8798,7 @@
     <row r="837">
       <c r="A837" t="inlineStr">
         <is>
-          <t>What is the epoch dominated by Michael Jackson?</t>
+          <t>What is the epoch defined by The Beatles?</t>
         </is>
       </c>
       <c r="B837" t="n">
@@ -8808,7 +8808,7 @@
     <row r="838">
       <c r="A838" t="inlineStr">
         <is>
-          <t>What is the epoch defined by Kanye West?</t>
+          <t>When was the top of career for Bruno Mars?</t>
         </is>
       </c>
       <c r="B838" t="n">
@@ -8818,7 +8818,7 @@
     <row r="839">
       <c r="A839" t="inlineStr">
         <is>
-          <t>What is the epoch defined by Kendrick Lamar?</t>
+          <t>What is the epoch defined by Aretha Franklin?</t>
         </is>
       </c>
       <c r="B839" t="n">
@@ -8828,7 +8828,7 @@
     <row r="840">
       <c r="A840" t="inlineStr">
         <is>
-          <t>What is the epoch defined by Louis Armstrong?</t>
+          <t>When was the top of career for Taylor Swift?</t>
         </is>
       </c>
       <c r="B840" t="n">
@@ -8838,7 +8838,7 @@
     <row r="841">
       <c r="A841" t="inlineStr">
         <is>
-          <t>When was the top of career for Rihanna?</t>
+          <t>When was the top of career for Nirvana?</t>
         </is>
       </c>
       <c r="B841" t="n">
@@ -8848,7 +8848,7 @@
     <row r="842">
       <c r="A842" t="inlineStr">
         <is>
-          <t>When was the top of career for Nirvana?</t>
+          <t>When was the top of career for Bob Dylan?</t>
         </is>
       </c>
       <c r="B842" t="n">
@@ -8858,7 +8858,7 @@
     <row r="843">
       <c r="A843" t="inlineStr">
         <is>
-          <t>When was the top of career for Led Zeppelin?</t>
+          <t>When was the top of career for Aretha Franklin?</t>
         </is>
       </c>
       <c r="B843" t="n">
@@ -8868,7 +8868,7 @@
     <row r="844">
       <c r="A844" t="inlineStr">
         <is>
-          <t>When was the top of career for Pearl Jam?</t>
+          <t>What is the epoch defined by Prince?</t>
         </is>
       </c>
       <c r="B844" t="n">
@@ -8878,7 +8878,7 @@
     <row r="845">
       <c r="A845" t="inlineStr">
         <is>
-          <t>What is the epoch dominated by Michael Jackson?</t>
+          <t>What is the epoch defined by Beyoncé?</t>
         </is>
       </c>
       <c r="B845" t="n">
@@ -8888,7 +8888,7 @@
     <row r="846">
       <c r="A846" t="inlineStr">
         <is>
-          <t>When was the top of career for Jimi Hendrix?</t>
+          <t>When was the top of career for Bruno Mars?</t>
         </is>
       </c>
       <c r="B846" t="n">
@@ -8898,7 +8898,7 @@
     <row r="847">
       <c r="A847" t="inlineStr">
         <is>
-          <t>When was the top of career for U2?</t>
+          <t>What is the epoch defined by Eminem?</t>
         </is>
       </c>
       <c r="B847" t="n">
@@ -8908,7 +8908,7 @@
     <row r="848">
       <c r="A848" t="inlineStr">
         <is>
-          <t>What is the epoch dominated by Bob Dylan?</t>
+          <t>When was the top of career for Marvin Gaye?</t>
         </is>
       </c>
       <c r="B848" t="n">
@@ -8918,7 +8918,7 @@
     <row r="849">
       <c r="A849" t="inlineStr">
         <is>
-          <t>What is the epoch defined by Bruno Mars?</t>
+          <t>When was the top of career for Pearl Jam?</t>
         </is>
       </c>
       <c r="B849" t="n">
@@ -8928,7 +8928,7 @@
     <row r="850">
       <c r="A850" t="inlineStr">
         <is>
-          <t>What is the epoch dominated by Led Zeppelin?</t>
+          <t>When was the top of career for Marvin Gaye?</t>
         </is>
       </c>
       <c r="B850" t="n">
@@ -8938,7 +8938,7 @@
     <row r="851">
       <c r="A851" t="inlineStr">
         <is>
-          <t>What is the epoch defined by Led Zeppelin?</t>
+          <t>When was the top of career for The Beatles?</t>
         </is>
       </c>
       <c r="B851" t="n">
@@ -8948,7 +8948,7 @@
     <row r="852">
       <c r="A852" t="inlineStr">
         <is>
-          <t>What is the epoch dominated by Bruno Mars?</t>
+          <t>What is the epoch defined by Bob Dylan?</t>
         </is>
       </c>
       <c r="B852" t="n">
@@ -8958,7 +8958,7 @@
     <row r="853">
       <c r="A853" t="inlineStr">
         <is>
-          <t>What is the epoch defined by The Beatles?</t>
+          <t>When was the top of career for Metallica?</t>
         </is>
       </c>
       <c r="B853" t="n">
@@ -8968,7 +8968,7 @@
     <row r="854">
       <c r="A854" t="inlineStr">
         <is>
-          <t>What is the epoch dominated by Whitney Houston?</t>
+          <t>When was the top of career for Radiohead?</t>
         </is>
       </c>
       <c r="B854" t="n">
@@ -8978,7 +8978,7 @@
     <row r="855">
       <c r="A855" t="inlineStr">
         <is>
-          <t>What is the epoch defined by Eminem?</t>
+          <t>When was the top of career for Whitney Houston?</t>
         </is>
       </c>
       <c r="B855" t="n">
@@ -8988,7 +8988,7 @@
     <row r="856">
       <c r="A856" t="inlineStr">
         <is>
-          <t>When was the top of career for Pearl Jam?</t>
+          <t>When was the top of career for Whitney Houston?</t>
         </is>
       </c>
       <c r="B856" t="n">
@@ -8998,7 +8998,7 @@
     <row r="857">
       <c r="A857" t="inlineStr">
         <is>
-          <t>When was the top of career for Prince?</t>
+          <t>When was the top of career for Coldplay?</t>
         </is>
       </c>
       <c r="B857" t="n">
@@ -9008,7 +9008,7 @@
     <row r="858">
       <c r="A858" t="inlineStr">
         <is>
-          <t>What is the epoch dominated by Taylor Swift?</t>
+          <t>What is the epoch defined by Kanye West?</t>
         </is>
       </c>
       <c r="B858" t="n">
@@ -9018,7 +9018,7 @@
     <row r="859">
       <c r="A859" t="inlineStr">
         <is>
-          <t>When was the top of career for Whitney Houston?</t>
+          <t>When was the top of career for The Beatles?</t>
         </is>
       </c>
       <c r="B859" t="n">
@@ -9028,7 +9028,7 @@
     <row r="860">
       <c r="A860" t="inlineStr">
         <is>
-          <t>What is the epoch defined by Queen?</t>
+          <t>When was the top of career for Louis Armstrong?</t>
         </is>
       </c>
       <c r="B860" t="n">
@@ -9038,7 +9038,7 @@
     <row r="861">
       <c r="A861" t="inlineStr">
         <is>
-          <t>When was the top of career for Drake?</t>
+          <t>When was the top of career for Pearl Jam?</t>
         </is>
       </c>
       <c r="B861" t="n">
@@ -9048,7 +9048,7 @@
     <row r="862">
       <c r="A862" t="inlineStr">
         <is>
-          <t>What is the epoch defined by Beyoncé?</t>
+          <t>When was the top of career for Pink Floyd?</t>
         </is>
       </c>
       <c r="B862" t="n">
@@ -9058,7 +9058,7 @@
     <row r="863">
       <c r="A863" t="inlineStr">
         <is>
-          <t>What is the epoch defined by Coldplay?</t>
+          <t>When was the top of career for Pearl Jam?</t>
         </is>
       </c>
       <c r="B863" t="n">
@@ -9068,7 +9068,7 @@
     <row r="864">
       <c r="A864" t="inlineStr">
         <is>
-          <t>When was the top of career for Coldplay?</t>
+          <t>What is the epoch defined by Aretha Franklin?</t>
         </is>
       </c>
       <c r="B864" t="n">
@@ -9078,7 +9078,7 @@
     <row r="865">
       <c r="A865" t="inlineStr">
         <is>
-          <t>When was the top of career for Pearl Jam?</t>
+          <t>When was the top of career for Stevie Wonder?</t>
         </is>
       </c>
       <c r="B865" t="n">
@@ -9088,7 +9088,7 @@
     <row r="866">
       <c r="A866" t="inlineStr">
         <is>
-          <t>When was the top of career for AC/DC?</t>
+          <t>What is the epoch defined by Nirvana?</t>
         </is>
       </c>
       <c r="B866" t="n">
@@ -9098,7 +9098,7 @@
     <row r="867">
       <c r="A867" t="inlineStr">
         <is>
-          <t>When was the top of career for Ed Sheeran?</t>
+          <t>When was the top of career for Red Hot Chili Peppers?</t>
         </is>
       </c>
       <c r="B867" t="n">
@@ -9108,7 +9108,7 @@
     <row r="868">
       <c r="A868" t="inlineStr">
         <is>
-          <t>When was the top of career for Kanye West?</t>
+          <t>When was the top of career for Bruno Mars?</t>
         </is>
       </c>
       <c r="B868" t="n">
@@ -9118,7 +9118,7 @@
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t>When was the top of career for Taylor Swift?</t>
+          <t>When was the top of career for Metallica?</t>
         </is>
       </c>
       <c r="B869" t="n">
@@ -9128,7 +9128,7 @@
     <row r="870">
       <c r="A870" t="inlineStr">
         <is>
-          <t>What is the epoch defined by Led Zeppelin?</t>
+          <t>When was the top of career for Taylor Swift?</t>
         </is>
       </c>
       <c r="B870" t="n">
@@ -9138,7 +9138,7 @@
     <row r="871">
       <c r="A871" t="inlineStr">
         <is>
-          <t>When was the top of career for The Beatles?</t>
+          <t>When was the top of career for Radiohead?</t>
         </is>
       </c>
       <c r="B871" t="n">
@@ -9148,7 +9148,7 @@
     <row r="872">
       <c r="A872" t="inlineStr">
         <is>
-          <t>When was the top of career for Billie Eilish?</t>
+          <t>What is the epoch defined by Bob Dylan?</t>
         </is>
       </c>
       <c r="B872" t="n">
@@ -9158,7 +9158,7 @@
     <row r="873">
       <c r="A873" t="inlineStr">
         <is>
-          <t>When was the top of career for Mumford &amp; Sons.?</t>
+          <t>When was the top of career for The Beatles?</t>
         </is>
       </c>
       <c r="B873" t="n">
@@ -9178,7 +9178,7 @@
     <row r="875">
       <c r="A875" t="inlineStr">
         <is>
-          <t>What is the epoch defined by Kendrick Lamar?</t>
+          <t>When was the top of career for Stevie Wonder?</t>
         </is>
       </c>
       <c r="B875" t="n">
@@ -9188,7 +9188,7 @@
     <row r="876">
       <c r="A876" t="inlineStr">
         <is>
-          <t>When was the top of career for Rihanna?</t>
+          <t>When was the top of career for Marvin Gaye?</t>
         </is>
       </c>
       <c r="B876" t="n">
@@ -9198,7 +9198,7 @@
     <row r="877">
       <c r="A877" t="inlineStr">
         <is>
-          <t>What is the epoch defined by Beyoncé?</t>
+          <t>What is the epoch defined by Aretha Franklin?</t>
         </is>
       </c>
       <c r="B877" t="n">
@@ -9208,7 +9208,7 @@
     <row r="878">
       <c r="A878" t="inlineStr">
         <is>
-          <t>What is the epoch defined by Led Zeppelin?</t>
+          <t>What is the epoch defined by Marvin Gaye?</t>
         </is>
       </c>
       <c r="B878" t="n">
@@ -9218,7 +9218,7 @@
     <row r="879">
       <c r="A879" t="inlineStr">
         <is>
-          <t>When was the top of career for Bruno Mars?</t>
+          <t>What is the epoch defined by Kanye West?</t>
         </is>
       </c>
       <c r="B879" t="n">
@@ -9228,7 +9228,7 @@
     <row r="880">
       <c r="A880" t="inlineStr">
         <is>
-          <t>When was the top of career for AC/DC?</t>
+          <t>When was the top of career for Led Zeppelin?</t>
         </is>
       </c>
       <c r="B880" t="n">
@@ -9238,7 +9238,7 @@
     <row r="881">
       <c r="A881" t="inlineStr">
         <is>
-          <t>When was the top of career for Drake?</t>
+          <t>What is the epoch defined by Pearl Jam?</t>
         </is>
       </c>
       <c r="B881" t="n">
@@ -9248,7 +9248,7 @@
     <row r="882">
       <c r="A882" t="inlineStr">
         <is>
-          <t>What is the epoch dominated by The Rolling Stones?</t>
+          <t>When was the top of career for Lady Gaga?</t>
         </is>
       </c>
       <c r="B882" t="n">
@@ -9258,7 +9258,7 @@
     <row r="883">
       <c r="A883" t="inlineStr">
         <is>
-          <t>When was the top of career for Aretha Franklin?</t>
+          <t>What is the epoch defined by Jay-Z?</t>
         </is>
       </c>
       <c r="B883" t="n">
@@ -9268,7 +9268,7 @@
     <row r="884">
       <c r="A884" t="inlineStr">
         <is>
-          <t>What is the epoch dominated by Rihanna?</t>
+          <t>When was the top of career for Foo Fighters?</t>
         </is>
       </c>
       <c r="B884" t="n">
@@ -9278,7 +9278,7 @@
     <row r="885">
       <c r="A885" t="inlineStr">
         <is>
-          <t>What is the epoch dominated by Aretha Franklin?</t>
+          <t>When was the top of career for Beyoncé?</t>
         </is>
       </c>
       <c r="B885" t="n">
@@ -9288,7 +9288,7 @@
     <row r="886">
       <c r="A886" t="inlineStr">
         <is>
-          <t>What is the epoch defined by Nirvana?</t>
+          <t>What is the epoch defined by The Beatles?</t>
         </is>
       </c>
       <c r="B886" t="n">
@@ -9298,7 +9298,7 @@
     <row r="887">
       <c r="A887" t="inlineStr">
         <is>
-          <t>When was the top of career for Kendrick Lamar?</t>
+          <t>When was the top of career for Billie Eilish?</t>
         </is>
       </c>
       <c r="B887" t="n">
@@ -9308,7 +9308,7 @@
     <row r="888">
       <c r="A888" t="inlineStr">
         <is>
-          <t>What is the epoch defined by Marvin Gaye?</t>
+          <t>When was the top of career for Whitney Houston?</t>
         </is>
       </c>
       <c r="B888" t="n">
@@ -9318,7 +9318,7 @@
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t>What is the epoch defined by Billie Eilish?</t>
+          <t>When was the top of career for Pearl Jam?</t>
         </is>
       </c>
       <c r="B889" t="n">
@@ -9328,7 +9328,7 @@
     <row r="890">
       <c r="A890" t="inlineStr">
         <is>
-          <t>When was the top of career for Green Day?</t>
+          <t>When was the top of career for Stevie Wonder?</t>
         </is>
       </c>
       <c r="B890" t="n">
@@ -9338,7 +9338,7 @@
     <row r="891">
       <c r="A891" t="inlineStr">
         <is>
-          <t>When was the top of career for Madonna?</t>
+          <t>When was the top of career for Billie Eilish?</t>
         </is>
       </c>
       <c r="B891" t="n">
@@ -9348,7 +9348,7 @@
     <row r="892">
       <c r="A892" t="inlineStr">
         <is>
-          <t>What is the epoch dominated by Stevie Wonder?</t>
+          <t>What is the epoch defined by Bob Dylan?</t>
         </is>
       </c>
       <c r="B892" t="n">
@@ -9358,7 +9358,7 @@
     <row r="893">
       <c r="A893" t="inlineStr">
         <is>
-          <t>When was the top of career for Coldplay?</t>
+          <t>What is the epoch defined by Bob Dylan?</t>
         </is>
       </c>
       <c r="B893" t="n">
@@ -9368,7 +9368,7 @@
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t>What is the epoch dominated by The Beatles?</t>
+          <t>What is the epoch defined by Louis Armstrong?</t>
         </is>
       </c>
       <c r="B894" t="n">
@@ -9378,7 +9378,7 @@
     <row r="895">
       <c r="A895" t="inlineStr">
         <is>
-          <t>What is the epoch dominated by Kanye West?</t>
+          <t>When was the top of career for Coldplay?</t>
         </is>
       </c>
       <c r="B895" t="n">
@@ -9388,7 +9388,7 @@
     <row r="896">
       <c r="A896" t="inlineStr">
         <is>
-          <t>What is the epoch defined by The Rolling Stones?</t>
+          <t>When was the top of career for Radiohead?</t>
         </is>
       </c>
       <c r="B896" t="n">
@@ -9398,7 +9398,7 @@
     <row r="897">
       <c r="A897" t="inlineStr">
         <is>
-          <t>What is the epoch defined by Drake?</t>
+          <t>When was the top of career for The Rolling Stones?</t>
         </is>
       </c>
       <c r="B897" t="n">
@@ -9408,7 +9408,7 @@
     <row r="898">
       <c r="A898" t="inlineStr">
         <is>
-          <t>When was the top of career for Green Day?</t>
+          <t>What is the epoch defined by Led Zeppelin?</t>
         </is>
       </c>
       <c r="B898" t="n">
@@ -9418,7 +9418,7 @@
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t>When was the top of career for Beyoncé?</t>
+          <t>When was the top of career for Whitney Houston?</t>
         </is>
       </c>
       <c r="B899" t="n">
@@ -9428,7 +9428,7 @@
     <row r="900">
       <c r="A900" t="inlineStr">
         <is>
-          <t>What is the epoch defined by The Beatles?</t>
+          <t>When was the top of career for Bob Dylan?</t>
         </is>
       </c>
       <c r="B900" t="n">
@@ -9438,7 +9438,7 @@
     <row r="901">
       <c r="A901" t="inlineStr">
         <is>
-          <t>When was the top of career for Kendrick Lamar?</t>
+          <t>When was the top of career for Rihanna?</t>
         </is>
       </c>
       <c r="B901" t="n">
@@ -9448,7 +9448,7 @@
     <row r="902">
       <c r="A902" t="inlineStr">
         <is>
-          <t>What is the epoch defined by Taylor Swift?</t>
+          <t>When was the top of career for Marvin Gaye?</t>
         </is>
       </c>
       <c r="B902" t="n">
@@ -9458,7 +9458,7 @@
     <row r="903">
       <c r="A903" t="inlineStr">
         <is>
-          <t>When was the top of career for Lady Gaga?</t>
+          <t>When was the top of career for Pearl Jam?</t>
         </is>
       </c>
       <c r="B903" t="n">
@@ -9468,7 +9468,7 @@
     <row r="904">
       <c r="A904" t="inlineStr">
         <is>
-          <t>When was the top of career for The Beatles?</t>
+          <t>What is the epoch defined by Prince?</t>
         </is>
       </c>
       <c r="B904" t="n">
@@ -9478,7 +9478,7 @@
     <row r="905">
       <c r="A905" t="inlineStr">
         <is>
-          <t>When was the top of career for Green Day?</t>
+          <t>What is the epoch defined by Nirvana?</t>
         </is>
       </c>
       <c r="B905" t="n">
@@ -9488,7 +9488,7 @@
     <row r="906">
       <c r="A906" t="inlineStr">
         <is>
-          <t>What is the epoch dominated by Queen?</t>
+          <t>When was the top of career for U2?</t>
         </is>
       </c>
       <c r="B906" t="n">
@@ -9498,7 +9498,7 @@
     <row r="907">
       <c r="A907" t="inlineStr">
         <is>
-          <t>What is the epoch defined by Nirvana?</t>
+          <t>When was the top of career for Louis Armstrong?</t>
         </is>
       </c>
       <c r="B907" t="n">
@@ -9508,7 +9508,7 @@
     <row r="908">
       <c r="A908" t="inlineStr">
         <is>
-          <t>When was the top of career for The Rolling Stones?</t>
+          <t>When was the top of career for Red Hot Chili Peppers?</t>
         </is>
       </c>
       <c r="B908" t="n">
@@ -9518,7 +9518,7 @@
     <row r="909">
       <c r="A909" t="inlineStr">
         <is>
-          <t>What is the epoch dominated by Lady Gaga?</t>
+          <t>When was the top of career for Green Day?</t>
         </is>
       </c>
       <c r="B909" t="n">
@@ -9528,7 +9528,7 @@
     <row r="910">
       <c r="A910" t="inlineStr">
         <is>
-          <t>What is the epoch defined by Mumford &amp; Sons.?</t>
+          <t>When was the top of career for Queen?</t>
         </is>
       </c>
       <c r="B910" t="n">
@@ -9538,7 +9538,7 @@
     <row r="911">
       <c r="A911" t="inlineStr">
         <is>
-          <t>What is the epoch defined by Kanye West?</t>
+          <t>When was the top of career for Elvis Presley?</t>
         </is>
       </c>
       <c r="B911" t="n">
@@ -9548,7 +9548,7 @@
     <row r="912">
       <c r="A912" t="inlineStr">
         <is>
-          <t>When was the top of career for Whitney Houston?</t>
+          <t>What is the epoch defined by Louis Armstrong?</t>
         </is>
       </c>
       <c r="B912" t="n">
@@ -9558,7 +9558,7 @@
     <row r="913">
       <c r="A913" t="inlineStr">
         <is>
-          <t>When was the top of career for Queen?</t>
+          <t>What is the epoch defined by Beyoncé?</t>
         </is>
       </c>
       <c r="B913" t="n">
@@ -9568,7 +9568,7 @@
     <row r="914">
       <c r="A914" t="inlineStr">
         <is>
-          <t>When was the top of career for Red Hot Chili Peppers?</t>
+          <t>When was the top of career for Drake?</t>
         </is>
       </c>
       <c r="B914" t="n">
@@ -9578,7 +9578,7 @@
     <row r="915">
       <c r="A915" t="inlineStr">
         <is>
-          <t>What is the epoch defined by Rihanna?</t>
+          <t>When was the top of career for Rihanna?</t>
         </is>
       </c>
       <c r="B915" t="n">
@@ -9588,7 +9588,7 @@
     <row r="916">
       <c r="A916" t="inlineStr">
         <is>
-          <t>What is the epoch defined by Whitney Houston?</t>
+          <t>When was the top of career for Michael Jackson?</t>
         </is>
       </c>
       <c r="B916" t="n">
@@ -9598,7 +9598,7 @@
     <row r="917">
       <c r="A917" t="inlineStr">
         <is>
-          <t>What is the epoch dominated by Elvis Presley?</t>
+          <t>When was the top of career for Ed Sheeran?</t>
         </is>
       </c>
       <c r="B917" t="n">
@@ -9608,7 +9608,7 @@
     <row r="918">
       <c r="A918" t="inlineStr">
         <is>
-          <t>What is the epoch defined by Rihanna?</t>
+          <t>What is the epoch defined by Bob Dylan?</t>
         </is>
       </c>
       <c r="B918" t="n">
@@ -9618,7 +9618,7 @@
     <row r="919">
       <c r="A919" t="inlineStr">
         <is>
-          <t>When was the top of career for Rihanna?</t>
+          <t>When was the top of career for Pink Floyd?</t>
         </is>
       </c>
       <c r="B919" t="n">
@@ -9628,7 +9628,7 @@
     <row r="920">
       <c r="A920" t="inlineStr">
         <is>
-          <t>What is the epoch defined by Pearl Jam?</t>
+          <t>What is the epoch defined by Eminem?</t>
         </is>
       </c>
       <c r="B920" t="n">
@@ -9638,7 +9638,7 @@
     <row r="921">
       <c r="A921" t="inlineStr">
         <is>
-          <t>When was the top of career for Louis Armstrong?</t>
+          <t>When was the top of career for Bruno Mars?</t>
         </is>
       </c>
       <c r="B921" t="n">
@@ -9648,7 +9648,7 @@
     <row r="922">
       <c r="A922" t="inlineStr">
         <is>
-          <t>What is the epoch defined by Queen?</t>
+          <t>When was the top of career for Beyoncé?</t>
         </is>
       </c>
       <c r="B922" t="n">
@@ -9658,7 +9658,7 @@
     <row r="923">
       <c r="A923" t="inlineStr">
         <is>
-          <t>When was the top of career for Bruno Mars?</t>
+          <t>When was the top of career for Green Day?</t>
         </is>
       </c>
       <c r="B923" t="n">
@@ -9668,7 +9668,7 @@
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t>What is the epoch defined by U2?</t>
+          <t>What is the epoch defined by Madonna?</t>
         </is>
       </c>
       <c r="B924" t="n">
@@ -9678,7 +9678,7 @@
     <row r="925">
       <c r="A925" t="inlineStr">
         <is>
-          <t>What is the epoch dominated by Adele?</t>
+          <t>When was the top of career for Jimi Hendrix?</t>
         </is>
       </c>
       <c r="B925" t="n">
@@ -9688,7 +9688,7 @@
     <row r="926">
       <c r="A926" t="inlineStr">
         <is>
-          <t>What is the epoch defined by Billie Eilish?</t>
+          <t>When was the top of career for Red Hot Chili Peppers?</t>
         </is>
       </c>
       <c r="B926" t="n">
@@ -9698,7 +9698,7 @@
     <row r="927">
       <c r="A927" t="inlineStr">
         <is>
-          <t>What is the epoch dominated by Beyoncé?</t>
+          <t>What is the epoch defined by Radiohead?</t>
         </is>
       </c>
       <c r="B927" t="n">
@@ -9708,7 +9708,7 @@
     <row r="928">
       <c r="A928" t="inlineStr">
         <is>
-          <t>When was the top of career for Stevie Wonder?</t>
+          <t>What is the epoch defined by Elvis Presley?</t>
         </is>
       </c>
       <c r="B928" t="n">
@@ -9718,7 +9718,7 @@
     <row r="929">
       <c r="A929" t="inlineStr">
         <is>
-          <t>When was the top of career for Prince?</t>
+          <t>When was the top of career for Green Day?</t>
         </is>
       </c>
       <c r="B929" t="n">
@@ -9728,7 +9728,7 @@
     <row r="930">
       <c r="A930" t="inlineStr">
         <is>
-          <t>What is the epoch defined by Pearl Jam?</t>
+          <t>When was the top of career for The Rolling Stones?</t>
         </is>
       </c>
       <c r="B930" t="n">
@@ -9738,7 +9738,7 @@
     <row r="931">
       <c r="A931" t="inlineStr">
         <is>
-          <t>What is the epoch defined by Foo Fighters?</t>
+          <t>What is the epoch defined by The Beatles?</t>
         </is>
       </c>
       <c r="B931" t="n">
@@ -9748,7 +9748,7 @@
     <row r="932">
       <c r="A932" t="inlineStr">
         <is>
-          <t>What is the epoch dominated by Eminem?</t>
+          <t>What is the epoch defined by Radiohead?</t>
         </is>
       </c>
       <c r="B932" t="n">
@@ -9758,7 +9758,7 @@
     <row r="933">
       <c r="A933" t="inlineStr">
         <is>
-          <t>When was the top of career for Eminem?</t>
+          <t>When was the top of career for Lady Gaga?</t>
         </is>
       </c>
       <c r="B933" t="n">
@@ -9768,7 +9768,7 @@
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t>When was the top of career for Queen?</t>
+          <t>When was the top of career for Green Day?</t>
         </is>
       </c>
       <c r="B934" t="n">
@@ -9778,7 +9778,7 @@
     <row r="935">
       <c r="A935" t="inlineStr">
         <is>
-          <t>When was the top of career for Green Day?</t>
+          <t>When was the top of career for Rihanna?</t>
         </is>
       </c>
       <c r="B935" t="n">
@@ -9788,7 +9788,7 @@
     <row r="936">
       <c r="A936" t="inlineStr">
         <is>
-          <t>When was the top of career for Queen?</t>
+          <t>When was the top of career for Prince?</t>
         </is>
       </c>
       <c r="B936" t="n">
@@ -9798,7 +9798,7 @@
     <row r="937">
       <c r="A937" t="inlineStr">
         <is>
-          <t>What is the epoch defined by Madonna?</t>
+          <t>When was the top of career for Kanye West?</t>
         </is>
       </c>
       <c r="B937" t="n">
@@ -9808,7 +9808,7 @@
     <row r="938">
       <c r="A938" t="inlineStr">
         <is>
-          <t>What is the epoch dominated by Marvin Gaye?</t>
+          <t>When was the top of career for Madonna?</t>
         </is>
       </c>
       <c r="B938" t="n">
@@ -9818,7 +9818,7 @@
     <row r="939">
       <c r="A939" t="inlineStr">
         <is>
-          <t>What is the epoch defined by Coldplay?</t>
+          <t>When was the top of career for Aretha Franklin?</t>
         </is>
       </c>
       <c r="B939" t="n">
@@ -9828,7 +9828,7 @@
     <row r="940">
       <c r="A940" t="inlineStr">
         <is>
-          <t>When was the top of career for Ed Sheeran?</t>
+          <t>When was the top of career for U2?</t>
         </is>
       </c>
       <c r="B940" t="n">
@@ -9838,7 +9838,7 @@
     <row r="941">
       <c r="A941" t="inlineStr">
         <is>
-          <t>What is the epoch dominated by Whitney Houston?</t>
+          <t>What is the epoch defined by Louis Armstrong?</t>
         </is>
       </c>
       <c r="B941" t="n">
@@ -9858,7 +9858,7 @@
     <row r="943">
       <c r="A943" t="inlineStr">
         <is>
-          <t>What is the epoch defined by Red Hot Chili Peppers?</t>
+          <t>What is the epoch defined by Madonna?</t>
         </is>
       </c>
       <c r="B943" t="n">
@@ -9868,7 +9868,7 @@
     <row r="944">
       <c r="A944" t="inlineStr">
         <is>
-          <t>When was the top of career for Drake?</t>
+          <t>What is the epoch defined by Beyoncé?</t>
         </is>
       </c>
       <c r="B944" t="n">
@@ -9878,7 +9878,7 @@
     <row r="945">
       <c r="A945" t="inlineStr">
         <is>
-          <t>What is the epoch defined by Michael Jackson?</t>
+          <t>When was the top of career for AC/DC?</t>
         </is>
       </c>
       <c r="B945" t="n">
@@ -9888,7 +9888,7 @@
     <row r="946">
       <c r="A946" t="inlineStr">
         <is>
-          <t>When was the top of career for Red Hot Chili Peppers?</t>
+          <t>When was the top of career for Queen?</t>
         </is>
       </c>
       <c r="B946" t="n">
@@ -9898,7 +9898,7 @@
     <row r="947">
       <c r="A947" t="inlineStr">
         <is>
-          <t>What is the epoch dominated by Michael Jackson?</t>
+          <t>When was the top of career for Madonna?</t>
         </is>
       </c>
       <c r="B947" t="n">
@@ -9908,7 +9908,7 @@
     <row r="948">
       <c r="A948" t="inlineStr">
         <is>
-          <t>What is the epoch defined by Metallica?</t>
+          <t>When was the top of career for Drake?</t>
         </is>
       </c>
       <c r="B948" t="n">
@@ -9918,7 +9918,7 @@
     <row r="949">
       <c r="A949" t="inlineStr">
         <is>
-          <t>What is the epoch defined by Bob Dylan?</t>
+          <t>When was the top of career for Bruno Mars?</t>
         </is>
       </c>
       <c r="B949" t="n">
@@ -9928,7 +9928,7 @@
     <row r="950">
       <c r="A950" t="inlineStr">
         <is>
-          <t>What is the epoch defined by Louis Armstrong?</t>
+          <t>What is the epoch defined by Prince?</t>
         </is>
       </c>
       <c r="B950" t="n">
@@ -9938,7 +9938,7 @@
     <row r="951">
       <c r="A951" t="inlineStr">
         <is>
-          <t>What is the epoch defined by Red Hot Chili Peppers?</t>
+          <t>What is the epoch defined by Radiohead?</t>
         </is>
       </c>
       <c r="B951" t="n">
@@ -9948,7 +9948,7 @@
     <row r="952">
       <c r="A952" t="inlineStr">
         <is>
-          <t>What is the epoch defined by Green Day?</t>
+          <t>What is the epoch defined by Jay-Z?</t>
         </is>
       </c>
       <c r="B952" t="n">
@@ -9958,7 +9958,7 @@
     <row r="953">
       <c r="A953" t="inlineStr">
         <is>
-          <t>When was the top of career for Elvis Presley?</t>
+          <t>What is the epoch defined by Prince?</t>
         </is>
       </c>
       <c r="B953" t="n">
@@ -9968,7 +9968,7 @@
     <row r="954">
       <c r="A954" t="inlineStr">
         <is>
-          <t>What is the epoch dominated by Nirvana?</t>
+          <t>What is the epoch defined by Eminem?</t>
         </is>
       </c>
       <c r="B954" t="n">
@@ -9978,7 +9978,7 @@
     <row r="955">
       <c r="A955" t="inlineStr">
         <is>
-          <t>What is the epoch dominated by Rihanna?</t>
+          <t>When was the top of career for Queen?</t>
         </is>
       </c>
       <c r="B955" t="n">
@@ -9988,7 +9988,7 @@
     <row r="956">
       <c r="A956" t="inlineStr">
         <is>
-          <t>What is the epoch defined by Elvis Presley?</t>
+          <t>What is the epoch defined by Stevie Wonder?</t>
         </is>
       </c>
       <c r="B956" t="n">
@@ -9998,7 +9998,7 @@
     <row r="957">
       <c r="A957" t="inlineStr">
         <is>
-          <t>When was the top of career for Whitney Houston?</t>
+          <t>What is the epoch defined by Madonna?</t>
         </is>
       </c>
       <c r="B957" t="n">
@@ -10008,7 +10008,7 @@
     <row r="958">
       <c r="A958" t="inlineStr">
         <is>
-          <t>What is the epoch defined by Lady Gaga?</t>
+          <t>When was the top of career for U2?</t>
         </is>
       </c>
       <c r="B958" t="n">
@@ -10018,7 +10018,7 @@
     <row r="959">
       <c r="A959" t="inlineStr">
         <is>
-          <t>What is the epoch dominated by The Beatles?</t>
+          <t>When was the top of career for Red Hot Chili Peppers?</t>
         </is>
       </c>
       <c r="B959" t="n">
@@ -10028,7 +10028,7 @@
     <row r="960">
       <c r="A960" t="inlineStr">
         <is>
-          <t>What is the epoch defined by Kendrick Lamar?</t>
+          <t>When was the top of career for Bob Dylan?</t>
         </is>
       </c>
       <c r="B960" t="n">
@@ -10038,7 +10038,7 @@
     <row r="961">
       <c r="A961" t="inlineStr">
         <is>
-          <t>When was the top of career for Foo Fighters?</t>
+          <t>When was the top of career for Adele?</t>
         </is>
       </c>
       <c r="B961" t="n">
@@ -10048,7 +10048,7 @@
     <row r="962">
       <c r="A962" t="inlineStr">
         <is>
-          <t>When was the top of career for Marvin Gaye?</t>
+          <t>When was the top of career for Bob Dylan?</t>
         </is>
       </c>
       <c r="B962" t="n">
@@ -10058,7 +10058,7 @@
     <row r="963">
       <c r="A963" t="inlineStr">
         <is>
-          <t>When was the top of career for Metallica?</t>
+          <t>When was the top of career for Jay-Z?</t>
         </is>
       </c>
       <c r="B963" t="n">
@@ -10068,7 +10068,7 @@
     <row r="964">
       <c r="A964" t="inlineStr">
         <is>
-          <t>What is the epoch dominated by Whitney Houston?</t>
+          <t>When was the top of career for Beyoncé?</t>
         </is>
       </c>
       <c r="B964" t="n">
@@ -10078,7 +10078,7 @@
     <row r="965">
       <c r="A965" t="inlineStr">
         <is>
-          <t>What is the epoch defined by Bruno Mars?</t>
+          <t>When was the top of career for Foo Fighters?</t>
         </is>
       </c>
       <c r="B965" t="n">
@@ -10088,7 +10088,7 @@
     <row r="966">
       <c r="A966" t="inlineStr">
         <is>
-          <t>When was the top of career for Billie Eilish?</t>
+          <t>When was the top of career for Prince?</t>
         </is>
       </c>
       <c r="B966" t="n">
@@ -10098,7 +10098,7 @@
     <row r="967">
       <c r="A967" t="inlineStr">
         <is>
-          <t>What is the epoch defined by Metallica?</t>
+          <t>What is the epoch defined by Bob Dylan?</t>
         </is>
       </c>
       <c r="B967" t="n">
@@ -10108,7 +10108,7 @@
     <row r="968">
       <c r="A968" t="inlineStr">
         <is>
-          <t>When was the top of career for Madonna?</t>
+          <t>When was the top of career for Ed Sheeran?</t>
         </is>
       </c>
       <c r="B968" t="n">
@@ -10118,7 +10118,7 @@
     <row r="969">
       <c r="A969" t="inlineStr">
         <is>
-          <t>When was the top of career for Jimi Hendrix?</t>
+          <t>When was the top of career for U2?</t>
         </is>
       </c>
       <c r="B969" t="n">
@@ -10128,7 +10128,7 @@
     <row r="970">
       <c r="A970" t="inlineStr">
         <is>
-          <t>What is the epoch dominated by Michael Jackson?</t>
+          <t>When was the top of career for Red Hot Chili Peppers?</t>
         </is>
       </c>
       <c r="B970" t="n">
@@ -10138,7 +10138,7 @@
     <row r="971">
       <c r="A971" t="inlineStr">
         <is>
-          <t>What is the epoch defined by Billie Eilish?</t>
+          <t>When was the top of career for Led Zeppelin?</t>
         </is>
       </c>
       <c r="B971" t="n">
@@ -10148,7 +10148,7 @@
     <row r="972">
       <c r="A972" t="inlineStr">
         <is>
-          <t>When was the top of career for Eminem?</t>
+          <t>When was the top of career for Pearl Jam?</t>
         </is>
       </c>
       <c r="B972" t="n">
@@ -10158,7 +10158,7 @@
     <row r="973">
       <c r="A973" t="inlineStr">
         <is>
-          <t>When was the top of career for Bob Dylan?</t>
+          <t>When was the top of career for Metallica?</t>
         </is>
       </c>
       <c r="B973" t="n">
@@ -10168,7 +10168,7 @@
     <row r="974">
       <c r="A974" t="inlineStr">
         <is>
-          <t>What is the epoch defined by Michael Jackson?</t>
+          <t>When was the top of career for Beyoncé?</t>
         </is>
       </c>
       <c r="B974" t="n">
@@ -10178,7 +10178,7 @@
     <row r="975">
       <c r="A975" t="inlineStr">
         <is>
-          <t>What is the epoch defined by Radiohead?</t>
+          <t>When was the top of career for Marvin Gaye?</t>
         </is>
       </c>
       <c r="B975" t="n">
@@ -10188,7 +10188,7 @@
     <row r="976">
       <c r="A976" t="inlineStr">
         <is>
-          <t>When was the top of career for Eminem?</t>
+          <t>When was the top of career for Prince?</t>
         </is>
       </c>
       <c r="B976" t="n">
@@ -10198,7 +10198,7 @@
     <row r="977">
       <c r="A977" t="inlineStr">
         <is>
-          <t>When was the top of career for Led Zeppelin?</t>
+          <t>What is the epoch defined by Michael Jackson?</t>
         </is>
       </c>
       <c r="B977" t="n">
@@ -10208,7 +10208,7 @@
     <row r="978">
       <c r="A978" t="inlineStr">
         <is>
-          <t>When was the top of career for Drake?</t>
+          <t>When was the top of career for Led Zeppelin?</t>
         </is>
       </c>
       <c r="B978" t="n">
@@ -10218,7 +10218,7 @@
     <row r="979">
       <c r="A979" t="inlineStr">
         <is>
-          <t>What is the epoch defined by Prince?</t>
+          <t>When was the top of career for The Rolling Stones?</t>
         </is>
       </c>
       <c r="B979" t="n">
@@ -10228,7 +10228,7 @@
     <row r="980">
       <c r="A980" t="inlineStr">
         <is>
-          <t>What is the epoch defined by Taylor Swift?</t>
+          <t>When was the top of career for Pink Floyd?</t>
         </is>
       </c>
       <c r="B980" t="n">
@@ -10238,7 +10238,7 @@
     <row r="981">
       <c r="A981" t="inlineStr">
         <is>
-          <t>What is the epoch defined by Ed Sheeran?</t>
+          <t>When was the top of career for Kendrick Lamar?</t>
         </is>
       </c>
       <c r="B981" t="n">
@@ -10248,7 +10248,7 @@
     <row r="982">
       <c r="A982" t="inlineStr">
         <is>
-          <t>What is the epoch defined by Led Zeppelin?</t>
+          <t>When was the top of career for Ed Sheeran?</t>
         </is>
       </c>
       <c r="B982" t="n">
@@ -10258,7 +10258,7 @@
     <row r="983">
       <c r="A983" t="inlineStr">
         <is>
-          <t>When was the top of career for Kendrick Lamar?</t>
+          <t>When was the top of career for Queen?</t>
         </is>
       </c>
       <c r="B983" t="n">
@@ -10268,7 +10268,7 @@
     <row r="984">
       <c r="A984" t="inlineStr">
         <is>
-          <t>When was the top of career for Adele?</t>
+          <t>What is the epoch defined by Stevie Wonder?</t>
         </is>
       </c>
       <c r="B984" t="n">
@@ -10278,7 +10278,7 @@
     <row r="985">
       <c r="A985" t="inlineStr">
         <is>
-          <t>What is the epoch defined by Mumford &amp; Sons.?</t>
+          <t>What is the epoch defined by Michael Jackson?</t>
         </is>
       </c>
       <c r="B985" t="n">
@@ -10288,7 +10288,7 @@
     <row r="986">
       <c r="A986" t="inlineStr">
         <is>
-          <t>What is the epoch defined by Pink Floyd?</t>
+          <t>What is the epoch defined by Madonna?</t>
         </is>
       </c>
       <c r="B986" t="n">
@@ -10298,7 +10298,7 @@
     <row r="987">
       <c r="A987" t="inlineStr">
         <is>
-          <t>What is the epoch defined by Aretha Franklin?</t>
+          <t>When was the top of career for Jimi Hendrix?</t>
         </is>
       </c>
       <c r="B987" t="n">
@@ -10308,7 +10308,7 @@
     <row r="988">
       <c r="A988" t="inlineStr">
         <is>
-          <t>When was the top of career for Stevie Wonder?</t>
+          <t>When was the top of career for Queen?</t>
         </is>
       </c>
       <c r="B988" t="n">
@@ -10318,7 +10318,7 @@
     <row r="989">
       <c r="A989" t="inlineStr">
         <is>
-          <t>When was the top of career for Led Zeppelin?</t>
+          <t>What is the epoch defined by Kanye West?</t>
         </is>
       </c>
       <c r="B989" t="n">
@@ -10328,7 +10328,7 @@
     <row r="990">
       <c r="A990" t="inlineStr">
         <is>
-          <t>What is the epoch dominated by Elvis Presley?</t>
+          <t>When was the top of career for Beyoncé?</t>
         </is>
       </c>
       <c r="B990" t="n">
@@ -10348,7 +10348,7 @@
     <row r="992">
       <c r="A992" t="inlineStr">
         <is>
-          <t>What is the epoch defined by Pink Floyd?</t>
+          <t>When was the top of career for Queen?</t>
         </is>
       </c>
       <c r="B992" t="n">
@@ -10358,7 +10358,7 @@
     <row r="993">
       <c r="A993" t="inlineStr">
         <is>
-          <t>When was the top of career for Taylor Swift?</t>
+          <t>When was the top of career for AC/DC?</t>
         </is>
       </c>
       <c r="B993" t="n">
@@ -10368,7 +10368,7 @@
     <row r="994">
       <c r="A994" t="inlineStr">
         <is>
-          <t>When was the top of career for Foo Fighters?</t>
+          <t>When was the top of career for Eminem?</t>
         </is>
       </c>
       <c r="B994" t="n">
@@ -10378,7 +10378,7 @@
     <row r="995">
       <c r="A995" t="inlineStr">
         <is>
-          <t>What is the epoch defined by Red Hot Chili Peppers?</t>
+          <t>When was the top of career for Eminem?</t>
         </is>
       </c>
       <c r="B995" t="n">
@@ -10388,7 +10388,7 @@
     <row r="996">
       <c r="A996" t="inlineStr">
         <is>
-          <t>When was the top of career for Lady Gaga?</t>
+          <t>When was the top of career for Queen?</t>
         </is>
       </c>
       <c r="B996" t="n">
@@ -10398,7 +10398,7 @@
     <row r="997">
       <c r="A997" t="inlineStr">
         <is>
-          <t>What is the epoch dominated by Prince?</t>
+          <t>What is the epoch defined by The Beatles?</t>
         </is>
       </c>
       <c r="B997" t="n">
@@ -10408,7 +10408,7 @@
     <row r="998">
       <c r="A998" t="inlineStr">
         <is>
-          <t>What is the epoch defined by Michael Jackson?</t>
+          <t>When was the top of career for The Rolling Stones?</t>
         </is>
       </c>
       <c r="B998" t="n">
@@ -10418,7 +10418,7 @@
     <row r="999">
       <c r="A999" t="inlineStr">
         <is>
-          <t>What is the epoch defined by Pink Floyd?</t>
+          <t>When was the top of career for Adele?</t>
         </is>
       </c>
       <c r="B999" t="n">
@@ -10428,7 +10428,7 @@
     <row r="1000">
       <c r="A1000" t="inlineStr">
         <is>
-          <t>What is the epoch dominated by Adele?</t>
+          <t>What is the epoch defined by Beyoncé?</t>
         </is>
       </c>
       <c r="B1000" t="n">
@@ -10438,7 +10438,7 @@
     <row r="1001">
       <c r="A1001" t="inlineStr">
         <is>
-          <t>What is the epoch defined by Mumford &amp; Sons.?</t>
+          <t>When was the top of career for Pink Floyd?</t>
         </is>
       </c>
       <c r="B1001" t="n">
